--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_10_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_10_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3092558.035792142</v>
+        <v>3087727.236280093</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2711628.074649629</v>
+        <v>2711628.07464963</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>911756.9728896299</v>
+        <v>911756.97288963</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="G2" t="n">
         <v>11.94294668035388</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5096686531243394</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,67 +740,67 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="U3" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>11.94294668035388</v>
       </c>
       <c r="R4" t="n">
-        <v>11.94294668035388</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="S4" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>10.5193474360557</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,61 +989,61 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="H6" t="n">
+      <c r="S6" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="I6" t="n">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10.5193474360557</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>11.94294668035388</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5096686531243394</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.5096686531243404</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="T8" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="T9" t="n">
-        <v>11.94294668035388</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="U9" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.94294668035388</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="R10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>267.0437471521529</v>
       </c>
       <c r="E11" t="n">
-        <v>288.7858847220584</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>109.6474663959061</v>
+        <v>307.9577008100356</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>309.3301514203408</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.41614036880195</v>
+        <v>47.41614036880198</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.52508371286568</v>
+        <v>70.52508371286571</v>
       </c>
       <c r="T11" t="n">
         <v>117.6084011590467</v>
@@ -1432,10 +1432,10 @@
         <v>231.5575033901223</v>
       </c>
       <c r="W11" t="n">
-        <v>256.8576028680792</v>
+        <v>38.00310175566639</v>
       </c>
       <c r="X11" t="n">
-        <v>276.1578611008258</v>
+        <v>276.1578611008259</v>
       </c>
       <c r="Y11" t="n">
         <v>287.5544588970246</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.66783702464028</v>
+        <v>79.66783702464031</v>
       </c>
       <c r="C13" t="n">
-        <v>65.86783187004076</v>
+        <v>65.86783187004079</v>
       </c>
       <c r="D13" t="n">
-        <v>49.48919626761915</v>
+        <v>49.48919626761918</v>
       </c>
       <c r="E13" t="n">
-        <v>48.4369461233986</v>
+        <v>48.43694612339863</v>
       </c>
       <c r="F13" t="n">
-        <v>48.90387045158491</v>
+        <v>48.90387045158494</v>
       </c>
       <c r="G13" t="n">
-        <v>64.9270098447565</v>
+        <v>64.92700984475664</v>
       </c>
       <c r="H13" t="n">
-        <v>53.49031411420174</v>
+        <v>53.49031411420151</v>
       </c>
       <c r="I13" t="n">
-        <v>33.143840620389</v>
+        <v>33.14384062038903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.66338358832746</v>
+        <v>34.66338358832749</v>
       </c>
       <c r="S13" t="n">
-        <v>105.1366242691458</v>
+        <v>105.1366242691459</v>
       </c>
       <c r="T13" t="n">
         <v>127.7203241864656</v>
       </c>
       <c r="U13" t="n">
-        <v>182.2526375068131</v>
+        <v>182.2526375068126</v>
       </c>
       <c r="V13" t="n">
         <v>156.0759734242659</v>
       </c>
       <c r="W13" t="n">
-        <v>181.2428594948791</v>
+        <v>181.2428594948792</v>
       </c>
       <c r="X13" t="n">
-        <v>126.8879614906822</v>
+        <v>126.8879614906823</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.7628292467499</v>
+        <v>117.76282924675</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>288.0511261499432</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>276.062443107625</v>
       </c>
       <c r="D14" t="n">
-        <v>220.8654332165905</v>
+        <v>267.0437471521529</v>
       </c>
       <c r="E14" t="n">
-        <v>288.7858847220584</v>
+        <v>288.7858847220585</v>
       </c>
       <c r="F14" t="n">
         <v>307.9577008100356</v>
       </c>
       <c r="G14" t="n">
-        <v>309.3301514203407</v>
+        <v>309.3301514203408</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6976136440768</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>47.41614036880195</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.52508371286568</v>
+        <v>70.52508371286571</v>
       </c>
       <c r="T14" t="n">
         <v>117.6084011590467</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>150.2396395672808</v>
       </c>
       <c r="V14" t="n">
         <v>231.5575033901223</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>276.1578611008258</v>
+        <v>72.7912185032358</v>
       </c>
       <c r="Y14" t="n">
         <v>287.5544588970246</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.66783702464028</v>
+        <v>79.66783702464031</v>
       </c>
       <c r="C16" t="n">
-        <v>65.86783187004076</v>
+        <v>65.86783187004079</v>
       </c>
       <c r="D16" t="n">
-        <v>49.48919626761915</v>
+        <v>49.48919626761918</v>
       </c>
       <c r="E16" t="n">
-        <v>48.4369461233986</v>
+        <v>48.43694612339863</v>
       </c>
       <c r="F16" t="n">
-        <v>48.90387045158491</v>
+        <v>48.90387045158494</v>
       </c>
       <c r="G16" t="n">
-        <v>64.92700984475651</v>
+        <v>64.92700984475654</v>
       </c>
       <c r="H16" t="n">
-        <v>53.49031411420173</v>
+        <v>53.49031411420176</v>
       </c>
       <c r="I16" t="n">
-        <v>33.14384062038901</v>
+        <v>33.14384062038904</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.66338358832748</v>
+        <v>34.66338358832751</v>
       </c>
       <c r="S16" t="n">
         <v>105.1366242691459</v>
@@ -1827,13 +1827,13 @@
         <v>156.0759734242659</v>
       </c>
       <c r="W16" t="n">
-        <v>181.2428594948791</v>
+        <v>181.2428594948792</v>
       </c>
       <c r="X16" t="n">
-        <v>126.8879614906822</v>
+        <v>126.8879614906823</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.7628292467499</v>
+        <v>117.76282924675</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>259.2489965879109</v>
       </c>
       <c r="G17" t="n">
-        <v>260.621447198216</v>
+        <v>260.6214471982161</v>
       </c>
       <c r="H17" t="n">
         <v>172.9889094219521</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>21.81637949074094</v>
+        <v>21.81637949074096</v>
       </c>
       <c r="T17" t="n">
-        <v>68.89969693692285</v>
+        <v>68.89969693692198</v>
       </c>
       <c r="U17" t="n">
-        <v>101.530935345156</v>
+        <v>101.5309353451567</v>
       </c>
       <c r="V17" t="n">
         <v>182.8487991679976</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.95913280251554</v>
+        <v>30.95913280251557</v>
       </c>
       <c r="C19" t="n">
-        <v>17.15912764791602</v>
+        <v>17.15912764791605</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7804920454944124</v>
+        <v>0.7804920454944408</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1951662294601704</v>
+        <v>0.1951662294601988</v>
       </c>
       <c r="G19" t="n">
-        <v>16.21830562263177</v>
+        <v>16.2183056226318</v>
       </c>
       <c r="H19" t="n">
-        <v>4.78160989207699</v>
+        <v>4.781609892077019</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2046,31 +2046,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>6.876998475623863</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>56.42792004702117</v>
+        <v>56.4279200470212</v>
       </c>
       <c r="T19" t="n">
-        <v>85.88861843996528</v>
+        <v>79.01161996434085</v>
       </c>
       <c r="U19" t="n">
         <v>133.5439332846883</v>
       </c>
       <c r="V19" t="n">
-        <v>107.3672692021411</v>
+        <v>107.3672692021412</v>
       </c>
       <c r="W19" t="n">
         <v>132.5341552727544</v>
       </c>
       <c r="X19" t="n">
-        <v>78.17925726855751</v>
+        <v>78.17925726855754</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.05412502462519</v>
+        <v>69.05412502462522</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>259.2489965879109</v>
       </c>
       <c r="G20" t="n">
-        <v>260.621447198216</v>
+        <v>260.6214471982163</v>
       </c>
       <c r="H20" t="n">
         <v>172.9889094219521</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>21.81637949074094</v>
+        <v>21.81637949074096</v>
       </c>
       <c r="T20" t="n">
-        <v>68.89969693692285</v>
+        <v>68.89969693692198</v>
       </c>
       <c r="U20" t="n">
-        <v>101.530935345156</v>
+        <v>101.5309353451561</v>
       </c>
       <c r="V20" t="n">
         <v>182.8487991679976</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37.83613127813995</v>
+        <v>30.95913280251557</v>
       </c>
       <c r="C22" t="n">
-        <v>17.15912764791602</v>
+        <v>17.15912764791605</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7804920454944124</v>
+        <v>0.7804920454944408</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1951662294601704</v>
+        <v>0.1951662294601988</v>
       </c>
       <c r="G22" t="n">
-        <v>16.21830562263177</v>
+        <v>16.2183056226318</v>
       </c>
       <c r="H22" t="n">
-        <v>4.78160989207699</v>
+        <v>4.781609892077019</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>56.42792004702117</v>
+        <v>63.30491852264511</v>
       </c>
       <c r="T22" t="n">
-        <v>79.01161996434082</v>
+        <v>79.01161996434085</v>
       </c>
       <c r="U22" t="n">
         <v>133.5439332846883</v>
       </c>
       <c r="V22" t="n">
-        <v>107.3672692021411</v>
+        <v>107.3672692021412</v>
       </c>
       <c r="W22" t="n">
         <v>132.5341552727544</v>
       </c>
       <c r="X22" t="n">
-        <v>78.17925726855751</v>
+        <v>78.17925726855754</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.05412502462519</v>
+        <v>69.05412502462522</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>259.2489965879109</v>
       </c>
       <c r="G23" t="n">
-        <v>260.621447198216</v>
+        <v>260.6214471982161</v>
       </c>
       <c r="H23" t="n">
         <v>172.9889094219521</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>21.81637949074132</v>
+        <v>21.81637949074087</v>
       </c>
       <c r="T23" t="n">
-        <v>68.89969693692197</v>
+        <v>68.89969693692198</v>
       </c>
       <c r="U23" t="n">
-        <v>101.5309353451571</v>
+        <v>101.5309353451567</v>
       </c>
       <c r="V23" t="n">
         <v>182.8487991679976</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.95913280251554</v>
+        <v>30.95913280251557</v>
       </c>
       <c r="C25" t="n">
-        <v>17.15912764791602</v>
+        <v>17.15912764791605</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7804920454944124</v>
+        <v>0.7804920454944408</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>6.876998475623863</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1951662294601704</v>
+        <v>0.1951662294601988</v>
       </c>
       <c r="G25" t="n">
-        <v>16.21830562263177</v>
+        <v>16.2183056226318</v>
       </c>
       <c r="H25" t="n">
-        <v>4.78160989207699</v>
+        <v>4.781609892077019</v>
       </c>
       <c r="I25" t="n">
-        <v>6.876998475624405</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>56.42792004702117</v>
+        <v>56.4279200470212</v>
       </c>
       <c r="T25" t="n">
-        <v>79.01161996434082</v>
+        <v>79.01161996434085</v>
       </c>
       <c r="U25" t="n">
         <v>133.5439332846883</v>
       </c>
       <c r="V25" t="n">
-        <v>107.3672692021411</v>
+        <v>107.3672692021412</v>
       </c>
       <c r="W25" t="n">
         <v>132.5341552727544</v>
       </c>
       <c r="X25" t="n">
-        <v>78.17925726855751</v>
+        <v>78.17925726855754</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.05412502462519</v>
+        <v>69.05412502462522</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>288.0511261499432</v>
       </c>
       <c r="C26" t="n">
-        <v>276.062443107625</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>267.0437471521529</v>
@@ -2566,13 +2566,13 @@
         <v>288.7858847220584</v>
       </c>
       <c r="F26" t="n">
-        <v>227.5886904775736</v>
+        <v>307.9577008100356</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>309.3301514203407</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>221.6976136440768</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.52508371286568</v>
       </c>
       <c r="T26" t="n">
         <v>117.6084011590467</v>
@@ -2614,10 +2614,10 @@
         <v>150.2396395672808</v>
       </c>
       <c r="V26" t="n">
-        <v>231.5575033901223</v>
+        <v>82.55569025608021</v>
       </c>
       <c r="W26" t="n">
-        <v>256.8576028680792</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>276.1578611008258</v>
@@ -2727,13 +2727,13 @@
         <v>48.90387045158491</v>
       </c>
       <c r="G28" t="n">
-        <v>64.92700984475687</v>
+        <v>64.9270098447565</v>
       </c>
       <c r="H28" t="n">
-        <v>53.49031411420173</v>
+        <v>53.49031411420174</v>
       </c>
       <c r="I28" t="n">
-        <v>33.14384062038901</v>
+        <v>33.143840620389</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66338358832748</v>
+        <v>34.66338358832746</v>
       </c>
       <c r="S28" t="n">
         <v>105.1366242691459</v>
@@ -2769,7 +2769,7 @@
         <v>127.7203241864656</v>
       </c>
       <c r="U28" t="n">
-        <v>182.252637506813</v>
+        <v>182.2526375068136</v>
       </c>
       <c r="V28" t="n">
         <v>156.0759734242659</v>
@@ -2800,16 +2800,16 @@
         <v>267.0437471521529</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>288.7858847220584</v>
       </c>
       <c r="F29" t="n">
-        <v>307.9577008100356</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>309.3301514203407</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>221.6976136440768</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>16.69512412830175</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>150.2396395672808</v>
@@ -2854,7 +2854,7 @@
         <v>231.5575033901223</v>
       </c>
       <c r="W29" t="n">
-        <v>256.8576028680792</v>
+        <v>71.02692944028179</v>
       </c>
       <c r="X29" t="n">
         <v>276.1578611008258</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66338358832746</v>
+        <v>34.66338358832774</v>
       </c>
       <c r="S31" t="n">
-        <v>105.1366242691458</v>
+        <v>105.1366242691459</v>
       </c>
       <c r="T31" t="n">
         <v>127.7203241864656</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>239.3424219278184</v>
+        <v>239.3424219278185</v>
       </c>
       <c r="C32" t="n">
-        <v>227.3537388855002</v>
+        <v>227.3537388855003</v>
       </c>
       <c r="D32" t="n">
         <v>218.3350429300282</v>
       </c>
       <c r="E32" t="n">
-        <v>240.0771804999337</v>
+        <v>240.0771804999338</v>
       </c>
       <c r="F32" t="n">
-        <v>259.2489965879108</v>
+        <v>259.2489965879109</v>
       </c>
       <c r="G32" t="n">
-        <v>260.6214471982159</v>
+        <v>260.6214471982161</v>
       </c>
       <c r="H32" t="n">
         <v>172.9889094219521</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>21.8163794907409</v>
+        <v>21.81637949074099</v>
       </c>
       <c r="T32" t="n">
-        <v>68.89969693692194</v>
+        <v>68.89969693692203</v>
       </c>
       <c r="U32" t="n">
-        <v>101.5309353451571</v>
+        <v>101.5309353451567</v>
       </c>
       <c r="V32" t="n">
         <v>182.8487991679976</v>
@@ -3094,10 +3094,10 @@
         <v>208.1488986459545</v>
       </c>
       <c r="X32" t="n">
-        <v>227.4491568787011</v>
+        <v>227.4491568787012</v>
       </c>
       <c r="Y32" t="n">
-        <v>238.8457546748998</v>
+        <v>238.8457546748999</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.83613127814029</v>
+        <v>30.9591328025156</v>
       </c>
       <c r="C34" t="n">
-        <v>17.15912764791599</v>
+        <v>17.15912764791608</v>
       </c>
       <c r="D34" t="n">
-        <v>0.780492045494384</v>
+        <v>0.7804920454944693</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1951662294601419</v>
+        <v>0.1951662294602272</v>
       </c>
       <c r="G34" t="n">
-        <v>16.21830562263174</v>
+        <v>16.21830562263183</v>
       </c>
       <c r="H34" t="n">
-        <v>4.781609892076962</v>
+        <v>4.781609892077047</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6.876998475623575</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>56.42792004702114</v>
+        <v>56.42792004702122</v>
       </c>
       <c r="T34" t="n">
-        <v>79.0116199643408</v>
+        <v>79.01161996434088</v>
       </c>
       <c r="U34" t="n">
         <v>133.5439332846883</v>
       </c>
       <c r="V34" t="n">
-        <v>107.3672692021411</v>
+        <v>107.3672692021412</v>
       </c>
       <c r="W34" t="n">
         <v>132.5341552727544</v>
       </c>
       <c r="X34" t="n">
-        <v>78.17925726855748</v>
+        <v>78.17925726855756</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.05412502462516</v>
+        <v>69.05412502462525</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>21.81637949074132</v>
+        <v>21.81637949074087</v>
       </c>
       <c r="T35" t="n">
         <v>68.899696936922</v>
       </c>
       <c r="U35" t="n">
-        <v>101.5309353451562</v>
+        <v>101.5309353451567</v>
       </c>
       <c r="V35" t="n">
         <v>182.8487991679976</v>
@@ -3444,7 +3444,7 @@
         <v>4.781609892077019</v>
       </c>
       <c r="I37" t="n">
-        <v>6.876998475623856</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>6.876998475623863</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>239.3424219278185</v>
+        <v>239.3424219278184</v>
       </c>
       <c r="C38" t="n">
         <v>227.3537388855002</v>
@@ -3514,10 +3514,10 @@
         <v>240.0771804999337</v>
       </c>
       <c r="F38" t="n">
-        <v>259.2489965879109</v>
+        <v>259.2489965879108</v>
       </c>
       <c r="G38" t="n">
-        <v>260.6214471982161</v>
+        <v>260.6214471982159</v>
       </c>
       <c r="H38" t="n">
         <v>172.9889094219521</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>21.81637949074096</v>
+        <v>21.8163794907409</v>
       </c>
       <c r="T38" t="n">
-        <v>68.899696936922</v>
+        <v>68.89969693692194</v>
       </c>
       <c r="U38" t="n">
         <v>101.5309353451571</v>
@@ -3571,7 +3571,7 @@
         <v>227.4491568787011</v>
       </c>
       <c r="Y38" t="n">
-        <v>238.8457546748999</v>
+        <v>238.8457546748998</v>
       </c>
     </row>
     <row r="39">
@@ -3660,31 +3660,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.95913280251557</v>
+        <v>30.95913280251551</v>
       </c>
       <c r="C40" t="n">
-        <v>17.15912764791605</v>
+        <v>17.15912764791599</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7804920454944408</v>
+        <v>0.780492045494384</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1951662294601988</v>
+        <v>0.1951662294601419</v>
       </c>
       <c r="G40" t="n">
-        <v>16.2183056226318</v>
+        <v>16.21830562263174</v>
       </c>
       <c r="H40" t="n">
-        <v>4.781609892077019</v>
+        <v>4.781609892076962</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>6.876998475624764</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3705,31 +3705,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.876998475623863</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.4279200470212</v>
+        <v>56.42792004702114</v>
       </c>
       <c r="T40" t="n">
-        <v>79.01161996434085</v>
+        <v>79.0116199643408</v>
       </c>
       <c r="U40" t="n">
         <v>133.5439332846883</v>
       </c>
       <c r="V40" t="n">
-        <v>107.3672692021412</v>
+        <v>107.3672692021411</v>
       </c>
       <c r="W40" t="n">
         <v>132.5341552727544</v>
       </c>
       <c r="X40" t="n">
-        <v>78.17925726855754</v>
+        <v>78.17925726855748</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.05412502462522</v>
+        <v>69.05412502462516</v>
       </c>
     </row>
     <row r="41">
@@ -3748,13 +3748,13 @@
         <v>271.6783166807992</v>
       </c>
       <c r="E41" t="n">
-        <v>293.4204542507048</v>
+        <v>293.4204542507047</v>
       </c>
       <c r="F41" t="n">
-        <v>312.5922703386819</v>
+        <v>312.5922703386818</v>
       </c>
       <c r="G41" t="n">
-        <v>313.9647209489871</v>
+        <v>313.964720948987</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>122.242970687693</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>236.1920729187686</v>
+        <v>67.99525660583085</v>
       </c>
       <c r="W41" t="n">
-        <v>261.4921723967256</v>
+        <v>261.4921723967254</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>280.7924306294721</v>
       </c>
       <c r="Y41" t="n">
-        <v>282.5416720545122</v>
+        <v>292.1890284256708</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>40.55615529889989</v>
+        <v>40.5561552988999</v>
       </c>
       <c r="S42" t="n">
         <v>145.6979404549165</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.30240655328657</v>
+        <v>84.30240655328652</v>
       </c>
       <c r="C43" t="n">
-        <v>70.50240139868706</v>
+        <v>70.502401398687</v>
       </c>
       <c r="D43" t="n">
-        <v>54.12376579626545</v>
+        <v>54.12376579626539</v>
       </c>
       <c r="E43" t="n">
-        <v>53.07151565204489</v>
+        <v>19.65603369950506</v>
       </c>
       <c r="F43" t="n">
-        <v>53.5384399802312</v>
+        <v>53.53843998023115</v>
       </c>
       <c r="G43" t="n">
-        <v>69.56157937340281</v>
+        <v>69.56157937340275</v>
       </c>
       <c r="H43" t="n">
-        <v>58.12488364284802</v>
+        <v>58.12488364284796</v>
       </c>
       <c r="I43" t="n">
-        <v>37.7784101490353</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>38.57730169621608</v>
+        <v>109.7711937977921</v>
       </c>
       <c r="T43" t="n">
-        <v>132.3548937151119</v>
+        <v>132.3548937151118</v>
       </c>
       <c r="U43" t="n">
         <v>186.8872070354593</v>
       </c>
       <c r="V43" t="n">
-        <v>160.7105429529122</v>
+        <v>160.7105429529121</v>
       </c>
       <c r="W43" t="n">
         <v>185.8774290235254</v>
@@ -3982,22 +3982,22 @@
         <v>280.6970126362712</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>271.6783166807992</v>
       </c>
       <c r="E44" t="n">
-        <v>293.4204542507048</v>
+        <v>293.4204542507047</v>
       </c>
       <c r="F44" t="n">
-        <v>312.5922703386819</v>
+        <v>312.5922703386818</v>
       </c>
       <c r="G44" t="n">
-        <v>313.9647209489871</v>
+        <v>313.964720948987</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>226.332183172723</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>52.05070989744818</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>103.4815003678614</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>236.1920729187686</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>261.4921723967256</v>
+        <v>51.10453593238474</v>
       </c>
       <c r="X44" t="n">
-        <v>280.7924306294722</v>
+        <v>280.7924306294721</v>
       </c>
       <c r="Y44" t="n">
-        <v>292.1890284256709</v>
+        <v>292.1890284256708</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>40.55615529889989</v>
+        <v>40.5561552988999</v>
       </c>
       <c r="S45" t="n">
         <v>145.6979404549165</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84.30240655328657</v>
+        <v>84.30240655328652</v>
       </c>
       <c r="C46" t="n">
-        <v>70.50240139868706</v>
+        <v>70.502401398687</v>
       </c>
       <c r="D46" t="n">
-        <v>54.12376579626545</v>
+        <v>54.12376579626539</v>
       </c>
       <c r="E46" t="n">
-        <v>53.07151565204489</v>
+        <v>53.07151565204484</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>53.53843998023115</v>
       </c>
       <c r="G46" t="n">
-        <v>69.56157937340281</v>
+        <v>69.56157937340275</v>
       </c>
       <c r="H46" t="n">
-        <v>58.12488364284802</v>
+        <v>58.12488364284796</v>
       </c>
       <c r="I46" t="n">
-        <v>37.7784101490353</v>
+        <v>37.77841014903524</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>39.29795311697371</v>
       </c>
       <c r="S46" t="n">
-        <v>92.11574167644744</v>
+        <v>109.7711937977921</v>
       </c>
       <c r="T46" t="n">
-        <v>132.3548937151119</v>
+        <v>132.3548937151118</v>
       </c>
       <c r="U46" t="n">
         <v>186.8872070354593</v>
       </c>
       <c r="V46" t="n">
-        <v>160.7105429529122</v>
+        <v>160.7105429529121</v>
       </c>
       <c r="W46" t="n">
         <v>185.8774290235254</v>
@@ -4203,7 +4203,7 @@
         <v>131.5225310193285</v>
       </c>
       <c r="Y46" t="n">
-        <v>122.3973987753962</v>
+        <v>11.90555355684729</v>
       </c>
     </row>
   </sheetData>
@@ -4318,37 +4318,37 @@
         <v>23.64462171059961</v>
       </c>
       <c r="F2" t="n">
-        <v>13.53383506117399</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G2" t="n">
-        <v>1.470252555766027</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H2" t="n">
-        <v>1.470252555766027</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I2" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="M2" t="n">
-        <v>12.3012350807645</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="N2" t="n">
-        <v>24.12475229431485</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="O2" t="n">
         <v>35.94826950786519</v>
       </c>
       <c r="P2" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="Q2" t="n">
         <v>47.77178672141554</v>
@@ -4360,7 +4360,7 @@
         <v>35.70820421600757</v>
       </c>
       <c r="T2" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U2" t="n">
         <v>23.64462171059961</v>
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.08260074524424</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="C3" t="n">
         <v>13.01901823983628</v>
@@ -4394,16 +4394,16 @@
         <v>13.01901823983628</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I3" t="n">
         <v>0.9554357344283108</v>
@@ -4415,46 +4415,46 @@
         <v>12.77895294797866</v>
       </c>
       <c r="L3" t="n">
-        <v>24.12475229431485</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="M3" t="n">
-        <v>24.12475229431485</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="N3" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O3" t="n">
         <v>35.94826950786519</v>
       </c>
       <c r="P3" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="Q3" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R3" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S3" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="T3" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="U3" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="V3" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="W3" t="n">
-        <v>25.08260074524424</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="X3" t="n">
-        <v>25.08260074524424</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="Y3" t="n">
-        <v>25.08260074524424</v>
+        <v>13.01901823983628</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9554357344283108</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="J4" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="L4" t="n">
-        <v>12.77895294797866</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M4" t="n">
-        <v>24.60247016152901</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="N4" t="n">
-        <v>36.42598737507935</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P4" t="n">
         <v>47.77178672141554</v>
@@ -4512,28 +4512,28 @@
         <v>35.70820421600757</v>
       </c>
       <c r="R4" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="S4" t="n">
-        <v>11.58103920519164</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9554357344283108</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9554357344283108</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9554357344283108</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9554357344283108</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9554357344283108</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9554357344283108</v>
+        <v>25.08260074524424</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="C5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="D5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="E5" t="n">
         <v>35.70820421600757</v>
@@ -4570,49 +4570,49 @@
         <v>12.77895294797866</v>
       </c>
       <c r="K5" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="L5" t="n">
-        <v>35.94826950786519</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="M5" t="n">
         <v>35.94826950786519</v>
       </c>
       <c r="N5" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="O5" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P5" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q5" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.14618325065221</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="C6" t="n">
-        <v>37.14618325065221</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="D6" t="n">
-        <v>37.14618325065221</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="E6" t="n">
-        <v>37.14618325065221</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="F6" t="n">
-        <v>37.14618325065221</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="G6" t="n">
-        <v>25.08260074524424</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H6" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I6" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9554357344283108</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9554357344283108</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="M6" t="n">
-        <v>12.3012350807645</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="N6" t="n">
-        <v>24.12475229431485</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="O6" t="n">
-        <v>24.12475229431485</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P6" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q6" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R6" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S6" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="T6" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="U6" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="V6" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="W6" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="X6" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="Y6" t="n">
-        <v>37.14618325065221</v>
+        <v>11.58103920519164</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="C7" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="D7" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="E7" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F7" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G7" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H7" t="n">
-        <v>25.08260074524424</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I7" t="n">
         <v>13.01901823983628</v>
@@ -4731,16 +4731,16 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="M7" t="n">
-        <v>12.3012350807645</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="N7" t="n">
-        <v>24.12475229431485</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="O7" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P7" t="n">
         <v>47.77178672141554</v>
@@ -4767,10 +4767,10 @@
         <v>35.70820421600757</v>
       </c>
       <c r="X7" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="Y7" t="n">
-        <v>35.70820421600757</v>
+        <v>23.64462171059961</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.64462171059961</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="C8" t="n">
-        <v>23.64462171059961</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="D8" t="n">
-        <v>23.64462171059961</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="E8" t="n">
-        <v>23.64462171059961</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="F8" t="n">
-        <v>13.53383506117399</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G8" t="n">
-        <v>1.470252555766027</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H8" t="n">
-        <v>1.470252555766027</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I8" t="n">
         <v>0.9554357344283108</v>
@@ -4807,49 +4807,49 @@
         <v>12.77895294797866</v>
       </c>
       <c r="K8" t="n">
+        <v>12.77895294797866</v>
+      </c>
+      <c r="L8" t="n">
+        <v>12.77895294797866</v>
+      </c>
+      <c r="M8" t="n">
         <v>24.12475229431485</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>35.94826950786519</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>35.94826950786519</v>
       </c>
-      <c r="N8" t="n">
-        <v>47.77178672141554</v>
-      </c>
-      <c r="O8" t="n">
-        <v>47.77178672141554</v>
-      </c>
       <c r="P8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="Q8" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R8" t="n">
-        <v>47.77178672141554</v>
+        <v>47.25696990007782</v>
       </c>
       <c r="S8" t="n">
-        <v>35.70820421600757</v>
+        <v>47.25696990007782</v>
       </c>
       <c r="T8" t="n">
-        <v>23.64462171059961</v>
+        <v>47.25696990007782</v>
       </c>
       <c r="U8" t="n">
-        <v>23.64462171059961</v>
+        <v>47.25696990007782</v>
       </c>
       <c r="V8" t="n">
-        <v>23.64462171059961</v>
+        <v>47.25696990007782</v>
       </c>
       <c r="W8" t="n">
-        <v>23.64462171059961</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="X8" t="n">
-        <v>23.64462171059961</v>
+        <v>35.19338739466986</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.64462171059961</v>
+        <v>35.19338739466986</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H9" t="n">
         <v>0.9554357344283108</v>
@@ -4883,19 +4883,19 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J9" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="K9" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="L9" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="M9" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="N9" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="O9" t="n">
         <v>24.12475229431485</v>
@@ -4913,22 +4913,22 @@
         <v>23.64462171059961</v>
       </c>
       <c r="T9" t="n">
-        <v>11.58103920519164</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9554357344283108</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="J10" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="L10" t="n">
-        <v>12.3012350807645</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M10" t="n">
-        <v>24.12475229431485</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="N10" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="O10" t="n">
         <v>47.77178672141554</v>
@@ -4983,31 +4983,31 @@
         <v>47.77178672141554</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.70820421600757</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="R10" t="n">
-        <v>23.64462171059961</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="S10" t="n">
-        <v>13.01901823983628</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="W10" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1053.933946901101</v>
+        <v>1274.999099539901</v>
       </c>
       <c r="C11" t="n">
-        <v>775.0829942671364</v>
+        <v>996.1481469059363</v>
       </c>
       <c r="D11" t="n">
-        <v>505.341835527588</v>
+        <v>726.4069881663879</v>
       </c>
       <c r="E11" t="n">
-        <v>213.6389216669229</v>
+        <v>726.4069881663879</v>
       </c>
       <c r="F11" t="n">
-        <v>102.8839051054015</v>
+        <v>415.3386035097863</v>
       </c>
       <c r="G11" t="n">
-        <v>102.8839051054015</v>
+        <v>102.8839051054016</v>
       </c>
       <c r="H11" t="n">
-        <v>102.8839051054015</v>
+        <v>102.8839051054016</v>
       </c>
       <c r="I11" t="n">
         <v>54.9888138237834</v>
@@ -5047,7 +5047,7 @@
         <v>484.8750910679295</v>
       </c>
       <c r="L11" t="n">
-        <v>920.37662644929</v>
+        <v>920.3766264492901</v>
       </c>
       <c r="M11" t="n">
         <v>1411.105655084269</v>
@@ -5080,13 +5080,13 @@
         <v>2173.753188331275</v>
       </c>
       <c r="W11" t="n">
-        <v>1914.301064222105</v>
+        <v>2135.366216860905</v>
       </c>
       <c r="X11" t="n">
-        <v>1635.353729776826</v>
+        <v>1856.418882415626</v>
       </c>
       <c r="Y11" t="n">
-        <v>1344.894680385892</v>
+        <v>1565.959833024692</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J12" t="n">
-        <v>143.3089054803057</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="K12" t="n">
-        <v>420.7686285343809</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="L12" t="n">
-        <v>851.0909431968469</v>
+        <v>485.3111284862493</v>
       </c>
       <c r="M12" t="n">
-        <v>1411.393302314044</v>
+        <v>1045.613487603446</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.920100652636</v>
+        <v>1634.140285942039</v>
       </c>
       <c r="O12" t="n">
-        <v>2462.798911522668</v>
+        <v>2097.019096812071</v>
       </c>
       <c r="P12" t="n">
-        <v>2462.798911522668</v>
+        <v>2455.841032465062</v>
       </c>
       <c r="Q12" t="n">
         <v>2534.278698377086</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>422.9272070480167</v>
+        <v>422.9272070480164</v>
       </c>
       <c r="C13" t="n">
-        <v>356.394043542925</v>
+        <v>356.3940435429247</v>
       </c>
       <c r="D13" t="n">
-        <v>306.4049564039158</v>
+        <v>306.4049564039155</v>
       </c>
       <c r="E13" t="n">
-        <v>257.4787481984627</v>
+        <v>257.4787481984623</v>
       </c>
       <c r="F13" t="n">
-        <v>208.0808992574678</v>
+        <v>208.0808992574674</v>
       </c>
       <c r="G13" t="n">
-        <v>142.4980610304408</v>
+        <v>142.4980610304405</v>
       </c>
       <c r="H13" t="n">
-        <v>88.46744071306522</v>
+        <v>88.46744071306524</v>
       </c>
       <c r="I13" t="n">
         <v>54.9888138237834</v>
@@ -5202,16 +5202,16 @@
         <v>114.7658445080201</v>
       </c>
       <c r="K13" t="n">
-        <v>278.3363044526608</v>
+        <v>278.3363044526609</v>
       </c>
       <c r="L13" t="n">
-        <v>517.0014420670344</v>
+        <v>517.0014420670345</v>
       </c>
       <c r="M13" t="n">
-        <v>775.0657645974884</v>
+        <v>775.0657645974883</v>
       </c>
       <c r="N13" t="n">
-        <v>1032.630654068971</v>
+        <v>1032.63065406897</v>
       </c>
       <c r="O13" t="n">
         <v>1267.327518396184</v>
@@ -5226,25 +5226,25 @@
         <v>1510.550486486039</v>
       </c>
       <c r="S13" t="n">
-        <v>1404.351876113165</v>
+        <v>1404.351876113164</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.341447641987</v>
+        <v>1275.341447641986</v>
       </c>
       <c r="U13" t="n">
         <v>1091.247874402782</v>
       </c>
       <c r="V13" t="n">
-        <v>933.5953759944325</v>
+        <v>933.5953759944323</v>
       </c>
       <c r="W13" t="n">
-        <v>750.5217805450596</v>
+        <v>750.5217805450594</v>
       </c>
       <c r="X13" t="n">
-        <v>622.3521224736634</v>
+        <v>622.3521224736631</v>
       </c>
       <c r="Y13" t="n">
-        <v>503.3997696991685</v>
+        <v>503.3997696991682</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1465.143282694394</v>
+        <v>1518.806922118948</v>
       </c>
       <c r="C14" t="n">
-        <v>1465.143282694394</v>
+        <v>1239.955969484983</v>
       </c>
       <c r="D14" t="n">
-        <v>1242.046885505918</v>
+        <v>970.2148107454349</v>
       </c>
       <c r="E14" t="n">
-        <v>950.3439716452533</v>
+        <v>678.5118968847697</v>
       </c>
       <c r="F14" t="n">
-        <v>639.2755869886516</v>
+        <v>367.4435122281681</v>
       </c>
       <c r="G14" t="n">
-        <v>326.820888584267</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="H14" t="n">
-        <v>102.8839051054015</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="I14" t="n">
         <v>54.9888138237834</v>
       </c>
       <c r="J14" t="n">
-        <v>174.1100376568463</v>
+        <v>174.1100376568462</v>
       </c>
       <c r="K14" t="n">
-        <v>484.8750910679297</v>
+        <v>484.8750910679295</v>
       </c>
       <c r="L14" t="n">
-        <v>920.37662644929</v>
+        <v>920.3766264492897</v>
       </c>
       <c r="M14" t="n">
-        <v>1411.105655084269</v>
+        <v>1411.105655084268</v>
       </c>
       <c r="N14" t="n">
         <v>1888.504364049727</v>
       </c>
       <c r="O14" t="n">
-        <v>2287.055438170518</v>
+        <v>2287.055438170517</v>
       </c>
       <c r="P14" t="n">
-        <v>2595.052099266574</v>
+        <v>2595.052099266573</v>
       </c>
       <c r="Q14" t="n">
         <v>2749.44069118917</v>
@@ -5311,19 +5311,19 @@
         <v>2559.406868086228</v>
       </c>
       <c r="U14" t="n">
-        <v>2559.406868086228</v>
+        <v>2407.649656402106</v>
       </c>
       <c r="V14" t="n">
-        <v>2325.510400015397</v>
+        <v>2173.753188331275</v>
       </c>
       <c r="W14" t="n">
-        <v>2325.510400015397</v>
+        <v>2173.753188331275</v>
       </c>
       <c r="X14" t="n">
-        <v>2046.563065570119</v>
+        <v>2100.226704994673</v>
       </c>
       <c r="Y14" t="n">
-        <v>1756.104016179185</v>
+        <v>1809.767655603739</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J15" t="n">
-        <v>54.9888138237834</v>
+        <v>143.3089054803057</v>
       </c>
       <c r="K15" t="n">
-        <v>54.9888138237834</v>
+        <v>143.3089054803057</v>
       </c>
       <c r="L15" t="n">
-        <v>485.3111284862493</v>
+        <v>573.6312201427716</v>
       </c>
       <c r="M15" t="n">
-        <v>1045.613487603446</v>
+        <v>1133.933579259968</v>
       </c>
       <c r="N15" t="n">
-        <v>1516.886482373381</v>
+        <v>1722.460377598561</v>
       </c>
       <c r="O15" t="n">
-        <v>1979.765293243412</v>
+        <v>2185.339188468593</v>
       </c>
       <c r="P15" t="n">
         <v>2338.587228896403</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>422.9272070480164</v>
+        <v>422.9272070480166</v>
       </c>
       <c r="C16" t="n">
-        <v>356.3940435429247</v>
+        <v>356.3940435429249</v>
       </c>
       <c r="D16" t="n">
-        <v>306.4049564039154</v>
+        <v>306.4049564039157</v>
       </c>
       <c r="E16" t="n">
-        <v>257.4787481984623</v>
+        <v>257.4787481984625</v>
       </c>
       <c r="F16" t="n">
-        <v>208.0808992574675</v>
+        <v>208.0808992574676</v>
       </c>
       <c r="G16" t="n">
-        <v>142.4980610304407</v>
+        <v>142.4980610304408</v>
       </c>
       <c r="H16" t="n">
-        <v>88.46744071306523</v>
+        <v>88.46744071306526</v>
       </c>
       <c r="I16" t="n">
         <v>54.9888138237834</v>
@@ -5454,34 +5454,34 @@
         <v>1267.327518396184</v>
       </c>
       <c r="P16" t="n">
-        <v>1461.448646979998</v>
+        <v>1461.448646979999</v>
       </c>
       <c r="Q16" t="n">
-        <v>1545.564005262127</v>
+        <v>1545.564005262128</v>
       </c>
       <c r="R16" t="n">
         <v>1510.550486486039</v>
       </c>
       <c r="S16" t="n">
-        <v>1404.351876113164</v>
+        <v>1404.351876113165</v>
       </c>
       <c r="T16" t="n">
         <v>1275.341447641987</v>
       </c>
       <c r="U16" t="n">
-        <v>1091.247874402781</v>
+        <v>1091.247874402782</v>
       </c>
       <c r="V16" t="n">
-        <v>933.5953759944322</v>
+        <v>933.5953759944325</v>
       </c>
       <c r="W16" t="n">
-        <v>750.5217805450593</v>
+        <v>750.5217805450596</v>
       </c>
       <c r="X16" t="n">
-        <v>622.352122473663</v>
+        <v>622.3521224736634</v>
       </c>
       <c r="Y16" t="n">
-        <v>503.3997696991682</v>
+        <v>503.3997696991685</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1217.889396286451</v>
       </c>
       <c r="D17" t="n">
-        <v>997.348948882382</v>
+        <v>997.3489488823823</v>
       </c>
       <c r="E17" t="n">
-        <v>754.8467463571965</v>
+        <v>754.8467463571967</v>
       </c>
       <c r="F17" t="n">
-        <v>492.9790730360744</v>
+        <v>492.9790730360745</v>
       </c>
       <c r="G17" t="n">
-        <v>229.7250859671693</v>
+        <v>229.7250859671694</v>
       </c>
       <c r="H17" t="n">
         <v>54.9888138237834</v>
@@ -5515,25 +5515,25 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J17" t="n">
-        <v>174.1100376568464</v>
+        <v>174.1100376568462</v>
       </c>
       <c r="K17" t="n">
-        <v>484.8750910679298</v>
+        <v>484.8750910679295</v>
       </c>
       <c r="L17" t="n">
-        <v>920.37662644929</v>
+        <v>920.3766264492897</v>
       </c>
       <c r="M17" t="n">
-        <v>1411.105655084269</v>
+        <v>1411.105655084268</v>
       </c>
       <c r="N17" t="n">
         <v>1888.504364049727</v>
       </c>
       <c r="O17" t="n">
-        <v>2287.055438170518</v>
+        <v>2287.055438170517</v>
       </c>
       <c r="P17" t="n">
-        <v>2595.052099266574</v>
+        <v>2595.052099266573</v>
       </c>
       <c r="Q17" t="n">
         <v>2749.44069118917</v>
@@ -5545,19 +5545,19 @@
         <v>2727.403944228825</v>
       </c>
       <c r="T17" t="n">
-        <v>2657.808290757186</v>
+        <v>2657.808290757187</v>
       </c>
       <c r="U17" t="n">
-        <v>2555.251790408543</v>
+        <v>2555.251790408544</v>
       </c>
       <c r="V17" t="n">
-        <v>2370.556033673192</v>
+        <v>2370.556033673193</v>
       </c>
       <c r="W17" t="n">
-        <v>2160.304620899501</v>
+        <v>2160.304620899502</v>
       </c>
       <c r="X17" t="n">
-        <v>1930.557997789702</v>
+        <v>1930.557997789703</v>
       </c>
       <c r="Y17" t="n">
         <v>1689.299659734248</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.51881527588375</v>
+        <v>94.5188152758839</v>
       </c>
       <c r="C19" t="n">
-        <v>77.18636310627161</v>
+        <v>77.18636310627173</v>
       </c>
       <c r="D19" t="n">
-        <v>76.39798730274191</v>
+        <v>76.397987302742</v>
       </c>
       <c r="E19" t="n">
-        <v>76.39798730274191</v>
+        <v>76.397987302742</v>
       </c>
       <c r="F19" t="n">
-        <v>76.20084969722659</v>
+        <v>76.20084969722664</v>
       </c>
       <c r="G19" t="n">
-        <v>59.81872280567934</v>
+        <v>59.81872280567937</v>
       </c>
       <c r="H19" t="n">
         <v>54.9888138237834</v>
@@ -5694,31 +5694,31 @@
         <v>795.4828671367609</v>
       </c>
       <c r="Q19" t="n">
-        <v>795.4828671367609</v>
+        <v>788.5364040300701</v>
       </c>
       <c r="R19" t="n">
-        <v>795.4828671367609</v>
+        <v>788.5364040300701</v>
       </c>
       <c r="S19" t="n">
-        <v>738.4849680993658</v>
+        <v>731.5385049926749</v>
       </c>
       <c r="T19" t="n">
-        <v>651.7287878569766</v>
+        <v>651.7287878569771</v>
       </c>
       <c r="U19" t="n">
-        <v>516.8359259532511</v>
+        <v>516.8359259532515</v>
       </c>
       <c r="V19" t="n">
-        <v>408.3841388803813</v>
+        <v>408.3841388803816</v>
       </c>
       <c r="W19" t="n">
-        <v>274.511254766488</v>
+        <v>274.5112547664883</v>
       </c>
       <c r="X19" t="n">
-        <v>195.5423080305713</v>
+        <v>195.5423080305716</v>
       </c>
       <c r="Y19" t="n">
-        <v>125.790666591556</v>
+        <v>125.7906665915562</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1447.539637584936</v>
+        <v>1447.539637584937</v>
       </c>
       <c r="C20" t="n">
-        <v>1217.889396286451</v>
+        <v>1217.889396286452</v>
       </c>
       <c r="D20" t="n">
-        <v>997.348948882382</v>
+        <v>997.3489488823826</v>
       </c>
       <c r="E20" t="n">
-        <v>754.8467463571965</v>
+        <v>754.8467463571969</v>
       </c>
       <c r="F20" t="n">
-        <v>492.9790730360744</v>
+        <v>492.9790730360747</v>
       </c>
       <c r="G20" t="n">
-        <v>229.7250859671693</v>
+        <v>229.7250859671694</v>
       </c>
       <c r="H20" t="n">
         <v>54.9888138237834</v>
@@ -5767,7 +5767,7 @@
         <v>1888.504364049727</v>
       </c>
       <c r="O20" t="n">
-        <v>2287.055438170518</v>
+        <v>2287.055438170517</v>
       </c>
       <c r="P20" t="n">
         <v>2595.052099266574</v>
@@ -5782,19 +5782,19 @@
         <v>2727.403944228825</v>
       </c>
       <c r="T20" t="n">
-        <v>2657.808290757186</v>
+        <v>2657.808290757187</v>
       </c>
       <c r="U20" t="n">
-        <v>2555.251790408543</v>
+        <v>2555.251790408544</v>
       </c>
       <c r="V20" t="n">
-        <v>2370.556033673192</v>
+        <v>2370.556033673193</v>
       </c>
       <c r="W20" t="n">
-        <v>2160.304620899501</v>
+        <v>2160.304620899502</v>
       </c>
       <c r="X20" t="n">
-        <v>1930.557997789702</v>
+        <v>1930.557997789703</v>
       </c>
       <c r="Y20" t="n">
         <v>1689.299659734248</v>
@@ -5843,13 +5843,13 @@
         <v>1411.393302314044</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.920100652636</v>
+        <v>1516.886482373381</v>
       </c>
       <c r="O21" t="n">
-        <v>2462.798911522668</v>
+        <v>1979.765293243412</v>
       </c>
       <c r="P21" t="n">
-        <v>2534.278698377086</v>
+        <v>2338.587228896403</v>
       </c>
       <c r="Q21" t="n">
         <v>2534.278698377086</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.51881527588375</v>
+        <v>94.5188152758839</v>
       </c>
       <c r="C22" t="n">
-        <v>77.18636310627161</v>
+        <v>77.18636310627173</v>
       </c>
       <c r="D22" t="n">
-        <v>76.39798730274191</v>
+        <v>76.397987302742</v>
       </c>
       <c r="E22" t="n">
-        <v>76.39798730274191</v>
+        <v>76.397987302742</v>
       </c>
       <c r="F22" t="n">
-        <v>76.20084969722659</v>
+        <v>76.20084969722664</v>
       </c>
       <c r="G22" t="n">
-        <v>59.81872280567934</v>
+        <v>59.81872280567937</v>
       </c>
       <c r="H22" t="n">
         <v>54.9888138237834</v>
@@ -5937,25 +5937,25 @@
         <v>795.4828671367609</v>
       </c>
       <c r="S22" t="n">
-        <v>738.4849680993658</v>
+        <v>731.5385049926749</v>
       </c>
       <c r="T22" t="n">
-        <v>658.675250963668</v>
+        <v>651.7287878569771</v>
       </c>
       <c r="U22" t="n">
-        <v>523.7823890599425</v>
+        <v>516.8359259532515</v>
       </c>
       <c r="V22" t="n">
-        <v>415.3306019870727</v>
+        <v>408.3841388803816</v>
       </c>
       <c r="W22" t="n">
-        <v>281.4577178731794</v>
+        <v>274.5112547664883</v>
       </c>
       <c r="X22" t="n">
-        <v>202.4887711372627</v>
+        <v>195.5423080305716</v>
       </c>
       <c r="Y22" t="n">
-        <v>132.7371296982473</v>
+        <v>125.7906665915562</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1447.539637584935</v>
+        <v>1447.539637584936</v>
       </c>
       <c r="C23" t="n">
-        <v>1217.88939628645</v>
+        <v>1217.889396286451</v>
       </c>
       <c r="D23" t="n">
-        <v>997.3489488823811</v>
+        <v>997.348948882382</v>
       </c>
       <c r="E23" t="n">
-        <v>754.8467463571956</v>
+        <v>754.8467463571965</v>
       </c>
       <c r="F23" t="n">
-        <v>492.9790730360737</v>
+        <v>492.9790730360743</v>
       </c>
       <c r="G23" t="n">
-        <v>229.7250859671693</v>
+        <v>229.7250859671694</v>
       </c>
       <c r="H23" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="I23" t="n">
-        <v>54.98881382378339</v>
+        <v>54.98881382378366</v>
       </c>
       <c r="J23" t="n">
-        <v>174.1100376568461</v>
+        <v>174.1100376568464</v>
       </c>
       <c r="K23" t="n">
-        <v>484.8750910679291</v>
+        <v>484.8750910679298</v>
       </c>
       <c r="L23" t="n">
-        <v>920.3766264492895</v>
+        <v>920.37662644929</v>
       </c>
       <c r="M23" t="n">
-        <v>1411.105655084268</v>
+        <v>1411.105655084269</v>
       </c>
       <c r="N23" t="n">
         <v>1888.504364049727</v>
       </c>
       <c r="O23" t="n">
-        <v>2287.055438170517</v>
+        <v>2287.055438170518</v>
       </c>
       <c r="P23" t="n">
-        <v>2595.052099266573</v>
+        <v>2595.052099266574</v>
       </c>
       <c r="Q23" t="n">
-        <v>2749.440691189169</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="R23" t="n">
-        <v>2749.440691189169</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="S23" t="n">
-        <v>2727.403944228824</v>
+        <v>2727.403944228825</v>
       </c>
       <c r="T23" t="n">
-        <v>2657.808290757186</v>
+        <v>2657.808290757187</v>
       </c>
       <c r="U23" t="n">
-        <v>2555.251790408543</v>
+        <v>2555.251790408544</v>
       </c>
       <c r="V23" t="n">
-        <v>2370.556033673191</v>
+        <v>2370.556033673193</v>
       </c>
       <c r="W23" t="n">
-        <v>2160.3046208995</v>
+        <v>2160.304620899502</v>
       </c>
       <c r="X23" t="n">
-        <v>1930.557997789701</v>
+        <v>1930.557997789702</v>
       </c>
       <c r="Y23" t="n">
-        <v>1689.299659734247</v>
+        <v>1689.299659734248</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>112.9356035520749</v>
       </c>
       <c r="I24" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J24" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="K24" t="n">
-        <v>332.4485368778587</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="L24" t="n">
-        <v>762.7708515403245</v>
+        <v>485.3111284862493</v>
       </c>
       <c r="M24" t="n">
-        <v>1323.073210657521</v>
+        <v>1045.613487603446</v>
       </c>
       <c r="N24" t="n">
-        <v>1911.600008996114</v>
+        <v>1634.140285942039</v>
       </c>
       <c r="O24" t="n">
-        <v>2374.478819866146</v>
+        <v>2097.019096812071</v>
       </c>
       <c r="P24" t="n">
-        <v>2534.278698377086</v>
+        <v>2455.841032465062</v>
       </c>
       <c r="Q24" t="n">
         <v>2534.278698377086</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.4652783825751</v>
+        <v>101.4652783825747</v>
       </c>
       <c r="C25" t="n">
-        <v>84.13282621296293</v>
+        <v>84.1328262129625</v>
       </c>
       <c r="D25" t="n">
-        <v>83.34445040943322</v>
+        <v>83.34445040943277</v>
       </c>
       <c r="E25" t="n">
-        <v>83.34445040943322</v>
+        <v>76.397987302742</v>
       </c>
       <c r="F25" t="n">
-        <v>83.1473128039179</v>
+        <v>76.20084969722664</v>
       </c>
       <c r="G25" t="n">
-        <v>66.76518591237065</v>
+        <v>59.81872280567937</v>
       </c>
       <c r="H25" t="n">
-        <v>61.93527693047471</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="I25" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J25" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="K25" t="n">
-        <v>117.5278155752573</v>
+        <v>117.5278155752574</v>
       </c>
       <c r="L25" t="n">
         <v>255.1614949964642</v>
@@ -6174,25 +6174,25 @@
         <v>795.4828671367609</v>
       </c>
       <c r="S25" t="n">
-        <v>738.4849680993658</v>
+        <v>738.4849680993657</v>
       </c>
       <c r="T25" t="n">
-        <v>658.675250963668</v>
+        <v>658.6752509636678</v>
       </c>
       <c r="U25" t="n">
-        <v>523.7823890599425</v>
+        <v>523.7823890599423</v>
       </c>
       <c r="V25" t="n">
-        <v>415.3306019870727</v>
+        <v>415.3306019870724</v>
       </c>
       <c r="W25" t="n">
-        <v>281.4577178731794</v>
+        <v>281.457717873179</v>
       </c>
       <c r="X25" t="n">
-        <v>202.4887711372627</v>
+        <v>202.4887711372623</v>
       </c>
       <c r="Y25" t="n">
-        <v>132.7371296982473</v>
+        <v>132.737129698247</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1125.171405196925</v>
+        <v>1463.892952963849</v>
       </c>
       <c r="C26" t="n">
-        <v>846.3204525629601</v>
+        <v>1463.892952963849</v>
       </c>
       <c r="D26" t="n">
-        <v>576.5792938234117</v>
+        <v>1194.1517942243</v>
       </c>
       <c r="E26" t="n">
-        <v>284.8763799627466</v>
+        <v>902.4488803636352</v>
       </c>
       <c r="F26" t="n">
-        <v>54.98881382378339</v>
+        <v>591.3804957070336</v>
       </c>
       <c r="G26" t="n">
-        <v>54.98881382378339</v>
+        <v>278.9257973026489</v>
       </c>
       <c r="H26" t="n">
         <v>54.98881382378339</v>
@@ -6226,13 +6226,13 @@
         <v>54.98881382378339</v>
       </c>
       <c r="J26" t="n">
-        <v>174.110037656846</v>
+        <v>174.1100376568461</v>
       </c>
       <c r="K26" t="n">
-        <v>484.8750910679292</v>
+        <v>484.8750910679291</v>
       </c>
       <c r="L26" t="n">
-        <v>920.3766264492896</v>
+        <v>920.3766264492895</v>
       </c>
       <c r="M26" t="n">
         <v>1411.105655084268</v>
@@ -6253,25 +6253,25 @@
         <v>2749.440691189169</v>
       </c>
       <c r="S26" t="n">
-        <v>2749.440691189169</v>
+        <v>2678.203232893345</v>
       </c>
       <c r="T26" t="n">
-        <v>2630.644326382052</v>
+        <v>2559.406868086227</v>
       </c>
       <c r="U26" t="n">
-        <v>2478.88711469793</v>
+        <v>2407.649656402105</v>
       </c>
       <c r="V26" t="n">
-        <v>2244.990646627099</v>
+        <v>2324.260070284853</v>
       </c>
       <c r="W26" t="n">
-        <v>1985.538522517928</v>
+        <v>2324.260070284853</v>
       </c>
       <c r="X26" t="n">
-        <v>1706.59118807265</v>
+        <v>2045.312735839574</v>
       </c>
       <c r="Y26" t="n">
-        <v>1416.132138681716</v>
+        <v>1754.85368644864</v>
       </c>
     </row>
     <row r="27">
@@ -6311,7 +6311,7 @@
         <v>332.4485368778587</v>
       </c>
       <c r="L27" t="n">
-        <v>563.748794398274</v>
+        <v>762.7708515403245</v>
       </c>
       <c r="M27" t="n">
         <v>1124.051153515471</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>422.9272070480168</v>
+        <v>422.9272070480165</v>
       </c>
       <c r="C28" t="n">
-        <v>356.3940435429251</v>
+        <v>356.3940435429248</v>
       </c>
       <c r="D28" t="n">
-        <v>306.4049564039158</v>
+        <v>306.4049564039155</v>
       </c>
       <c r="E28" t="n">
-        <v>257.4787481984627</v>
+        <v>257.4787481984624</v>
       </c>
       <c r="F28" t="n">
-        <v>208.0808992574678</v>
+        <v>208.0808992574676</v>
       </c>
       <c r="G28" t="n">
-        <v>142.4980610304407</v>
+        <v>142.4980610304408</v>
       </c>
       <c r="H28" t="n">
-        <v>88.46744071306522</v>
+        <v>88.4674407130652</v>
       </c>
       <c r="I28" t="n">
         <v>54.98881382378339</v>
@@ -6393,7 +6393,7 @@
         <v>517.0014420670344</v>
       </c>
       <c r="M28" t="n">
-        <v>775.0657645974883</v>
+        <v>775.0657645974884</v>
       </c>
       <c r="N28" t="n">
         <v>1032.630654068971</v>
@@ -6417,19 +6417,19 @@
         <v>1275.341447641987</v>
       </c>
       <c r="U28" t="n">
-        <v>1091.247874402782</v>
+        <v>1091.247874402781</v>
       </c>
       <c r="V28" t="n">
-        <v>933.5953759944325</v>
+        <v>933.5953759944322</v>
       </c>
       <c r="W28" t="n">
-        <v>750.5217805450596</v>
+        <v>750.5217805450593</v>
       </c>
       <c r="X28" t="n">
-        <v>622.3521224736635</v>
+        <v>622.3521224736631</v>
       </c>
       <c r="Y28" t="n">
-        <v>503.3997696991686</v>
+        <v>503.3997696991683</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1227.104008258283</v>
+        <v>1431.675520941212</v>
       </c>
       <c r="C29" t="n">
-        <v>948.253055624318</v>
+        <v>1152.824568307247</v>
       </c>
       <c r="D29" t="n">
-        <v>678.5118968847696</v>
+        <v>883.0834095676987</v>
       </c>
       <c r="E29" t="n">
-        <v>678.5118968847696</v>
+        <v>591.3804957070336</v>
       </c>
       <c r="F29" t="n">
-        <v>367.443512228168</v>
+        <v>591.3804957070336</v>
       </c>
       <c r="G29" t="n">
-        <v>54.98881382378339</v>
+        <v>278.9257973026489</v>
       </c>
       <c r="H29" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="I29" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J29" t="n">
-        <v>174.1100376568461</v>
+        <v>174.1100376568463</v>
       </c>
       <c r="K29" t="n">
-        <v>484.8750910679295</v>
+        <v>484.8750910679297</v>
       </c>
       <c r="L29" t="n">
-        <v>920.3766264492897</v>
+        <v>920.37662644929</v>
       </c>
       <c r="M29" t="n">
-        <v>1411.105655084268</v>
+        <v>1411.105655084269</v>
       </c>
       <c r="N29" t="n">
         <v>1888.504364049727</v>
       </c>
       <c r="O29" t="n">
-        <v>2287.055438170517</v>
+        <v>2287.055438170518</v>
       </c>
       <c r="P29" t="n">
-        <v>2595.052099266573</v>
+        <v>2595.052099266574</v>
       </c>
       <c r="Q29" t="n">
-        <v>2749.440691189169</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="R29" t="n">
-        <v>2749.440691189169</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="S29" t="n">
-        <v>2749.440691189169</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="T29" t="n">
-        <v>2732.57692944341</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="U29" t="n">
-        <v>2580.819717759288</v>
+        <v>2597.683479505048</v>
       </c>
       <c r="V29" t="n">
-        <v>2346.923249688457</v>
+        <v>2363.787011434217</v>
       </c>
       <c r="W29" t="n">
-        <v>2087.471125579286</v>
+        <v>2292.042638262215</v>
       </c>
       <c r="X29" t="n">
-        <v>1808.523791134008</v>
+        <v>2013.095303816937</v>
       </c>
       <c r="Y29" t="n">
-        <v>1518.064741743074</v>
+        <v>1722.636254426003</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>112.9356035520749</v>
       </c>
       <c r="I30" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J30" t="n">
-        <v>54.98881382378339</v>
+        <v>143.3089054803057</v>
       </c>
       <c r="K30" t="n">
-        <v>332.4485368778587</v>
+        <v>420.7686285343809</v>
       </c>
       <c r="L30" t="n">
-        <v>563.748794398274</v>
+        <v>420.7686285343809</v>
       </c>
       <c r="M30" t="n">
-        <v>1124.051153515471</v>
+        <v>981.0709876515778</v>
       </c>
       <c r="N30" t="n">
-        <v>1712.577951854063</v>
+        <v>1569.59778599017</v>
       </c>
       <c r="O30" t="n">
-        <v>2175.456762724095</v>
+        <v>2032.476596860202</v>
       </c>
       <c r="P30" t="n">
-        <v>2534.278698377086</v>
+        <v>2391.298532513193</v>
       </c>
       <c r="Q30" t="n">
         <v>2534.278698377086</v>
@@ -6615,19 +6615,19 @@
         <v>142.498061030441</v>
       </c>
       <c r="H31" t="n">
-        <v>88.4674407130652</v>
+        <v>88.46744071306522</v>
       </c>
       <c r="I31" t="n">
-        <v>54.98881382378339</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="J31" t="n">
-        <v>114.7658445080201</v>
+        <v>114.76584450802</v>
       </c>
       <c r="K31" t="n">
         <v>278.3363044526608</v>
       </c>
       <c r="L31" t="n">
-        <v>517.0014420670345</v>
+        <v>517.0014420670344</v>
       </c>
       <c r="M31" t="n">
         <v>775.0657645974884</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1447.539637584936</v>
+        <v>1447.539637584935</v>
       </c>
       <c r="C32" t="n">
-        <v>1217.889396286451</v>
+        <v>1217.88939628645</v>
       </c>
       <c r="D32" t="n">
-        <v>997.3489488823818</v>
+        <v>997.3489488823816</v>
       </c>
       <c r="E32" t="n">
         <v>754.8467463571963</v>
       </c>
       <c r="F32" t="n">
-        <v>492.9790730360739</v>
+        <v>492.9790730360742</v>
       </c>
       <c r="G32" t="n">
-        <v>229.7250859671693</v>
+        <v>229.7250859671694</v>
       </c>
       <c r="H32" t="n">
         <v>54.9888138237834</v>
@@ -6733,7 +6733,7 @@
         <v>2657.808290757187</v>
       </c>
       <c r="U32" t="n">
-        <v>2555.251790408543</v>
+        <v>2555.251790408544</v>
       </c>
       <c r="V32" t="n">
         <v>2370.556033673192</v>
@@ -6782,16 +6782,16 @@
         <v>54.9888138237834</v>
       </c>
       <c r="K33" t="n">
-        <v>332.4485368778587</v>
+        <v>133.4264797358081</v>
       </c>
       <c r="L33" t="n">
-        <v>762.7708515403245</v>
+        <v>563.748794398274</v>
       </c>
       <c r="M33" t="n">
-        <v>1323.073210657521</v>
+        <v>1124.051153515471</v>
       </c>
       <c r="N33" t="n">
-        <v>1911.600008996114</v>
+        <v>1712.577951854063</v>
       </c>
       <c r="O33" t="n">
         <v>2175.456762724095</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.51881527588361</v>
+        <v>101.4652783825745</v>
       </c>
       <c r="C34" t="n">
-        <v>77.1863631062715</v>
+        <v>84.13282621296233</v>
       </c>
       <c r="D34" t="n">
-        <v>76.39798730274183</v>
+        <v>83.34445040943257</v>
       </c>
       <c r="E34" t="n">
-        <v>76.39798730274183</v>
+        <v>83.34445040943257</v>
       </c>
       <c r="F34" t="n">
-        <v>76.20084969722653</v>
+        <v>83.14731280391719</v>
       </c>
       <c r="G34" t="n">
-        <v>59.81872280567931</v>
+        <v>66.76518591236989</v>
       </c>
       <c r="H34" t="n">
-        <v>54.9888138237834</v>
+        <v>61.93527693047388</v>
       </c>
       <c r="I34" t="n">
         <v>54.9888138237834</v>
@@ -6885,25 +6885,25 @@
         <v>795.4828671367609</v>
       </c>
       <c r="S34" t="n">
-        <v>738.4849680993658</v>
+        <v>738.4849680993657</v>
       </c>
       <c r="T34" t="n">
-        <v>658.6752509636681</v>
+        <v>658.6752509636678</v>
       </c>
       <c r="U34" t="n">
-        <v>523.7823890599426</v>
+        <v>523.7823890599423</v>
       </c>
       <c r="V34" t="n">
-        <v>415.3306019870728</v>
+        <v>415.3306019870724</v>
       </c>
       <c r="W34" t="n">
-        <v>281.4577178731795</v>
+        <v>281.457717873179</v>
       </c>
       <c r="X34" t="n">
-        <v>202.4887711372629</v>
+        <v>202.4887711372623</v>
       </c>
       <c r="Y34" t="n">
-        <v>132.7371296982475</v>
+        <v>132.7371296982469</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1217.889396286451</v>
       </c>
       <c r="D35" t="n">
-        <v>997.3489488823822</v>
+        <v>997.348948882382</v>
       </c>
       <c r="E35" t="n">
-        <v>754.8467463571966</v>
+        <v>754.8467463571963</v>
       </c>
       <c r="F35" t="n">
-        <v>492.9790730360745</v>
+        <v>492.9790730360743</v>
       </c>
       <c r="G35" t="n">
         <v>229.7250859671694</v>
@@ -6937,16 +6937,16 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J35" t="n">
-        <v>174.1100376568463</v>
+        <v>174.1100376568461</v>
       </c>
       <c r="K35" t="n">
-        <v>484.8750910679297</v>
+        <v>484.8750910679294</v>
       </c>
       <c r="L35" t="n">
-        <v>920.37662644929</v>
+        <v>920.3766264492895</v>
       </c>
       <c r="M35" t="n">
-        <v>1411.105655084269</v>
+        <v>1411.105655084268</v>
       </c>
       <c r="N35" t="n">
         <v>1888.504364049727</v>
@@ -6976,7 +6976,7 @@
         <v>2370.556033673193</v>
       </c>
       <c r="W35" t="n">
-        <v>2160.304620899502</v>
+        <v>2160.304620899501</v>
       </c>
       <c r="X35" t="n">
         <v>1930.557997789702</v>
@@ -7016,25 +7016,25 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J36" t="n">
-        <v>143.3089054803057</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="K36" t="n">
-        <v>420.7686285343809</v>
+        <v>332.4485368778587</v>
       </c>
       <c r="L36" t="n">
-        <v>851.0909431968469</v>
+        <v>762.7708515403245</v>
       </c>
       <c r="M36" t="n">
-        <v>1411.393302314044</v>
+        <v>1323.073210657521</v>
       </c>
       <c r="N36" t="n">
-        <v>1516.886482373381</v>
+        <v>1712.577951854063</v>
       </c>
       <c r="O36" t="n">
-        <v>1979.765293243412</v>
+        <v>2175.456762724095</v>
       </c>
       <c r="P36" t="n">
-        <v>2338.587228896403</v>
+        <v>2534.278698377086</v>
       </c>
       <c r="Q36" t="n">
         <v>2534.278698377086</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.4652783825747</v>
+        <v>94.5188152758839</v>
       </c>
       <c r="C37" t="n">
-        <v>84.1328262129625</v>
+        <v>77.18636310627173</v>
       </c>
       <c r="D37" t="n">
-        <v>83.34445040943277</v>
+        <v>76.397987302742</v>
       </c>
       <c r="E37" t="n">
-        <v>83.34445040943277</v>
+        <v>76.397987302742</v>
       </c>
       <c r="F37" t="n">
-        <v>83.14731280391742</v>
+        <v>76.20084969722664</v>
       </c>
       <c r="G37" t="n">
-        <v>66.76518591237014</v>
+        <v>59.81872280567937</v>
       </c>
       <c r="H37" t="n">
-        <v>61.93527693047416</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="I37" t="n">
         <v>54.9888138237834</v>
@@ -7116,31 +7116,31 @@
         <v>795.4828671367609</v>
       </c>
       <c r="Q37" t="n">
-        <v>795.4828671367609</v>
+        <v>788.5364040300701</v>
       </c>
       <c r="R37" t="n">
-        <v>795.4828671367609</v>
+        <v>788.5364040300701</v>
       </c>
       <c r="S37" t="n">
-        <v>738.4849680993657</v>
+        <v>731.5385049926749</v>
       </c>
       <c r="T37" t="n">
-        <v>658.6752509636678</v>
+        <v>651.7287878569771</v>
       </c>
       <c r="U37" t="n">
-        <v>523.7823890599423</v>
+        <v>516.8359259532515</v>
       </c>
       <c r="V37" t="n">
-        <v>415.3306019870724</v>
+        <v>408.3841388803816</v>
       </c>
       <c r="W37" t="n">
-        <v>281.457717873179</v>
+        <v>274.5112547664883</v>
       </c>
       <c r="X37" t="n">
-        <v>202.4887711372623</v>
+        <v>195.5423080305716</v>
       </c>
       <c r="Y37" t="n">
-        <v>132.737129698247</v>
+        <v>125.7906665915562</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>754.8467463571965</v>
       </c>
       <c r="F38" t="n">
-        <v>492.9790730360743</v>
+        <v>492.9790730360744</v>
       </c>
       <c r="G38" t="n">
-        <v>229.7250859671694</v>
+        <v>229.7250859671693</v>
       </c>
       <c r="H38" t="n">
         <v>54.9888138237834</v>
@@ -7174,19 +7174,19 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J38" t="n">
-        <v>174.1100376568469</v>
+        <v>174.1100376568462</v>
       </c>
       <c r="K38" t="n">
-        <v>484.8750910679302</v>
+        <v>484.8750910679295</v>
       </c>
       <c r="L38" t="n">
-        <v>920.3766264492905</v>
+        <v>920.3766264492897</v>
       </c>
       <c r="M38" t="n">
         <v>1411.105655084269</v>
       </c>
       <c r="N38" t="n">
-        <v>1888.504364049728</v>
+        <v>1888.504364049727</v>
       </c>
       <c r="O38" t="n">
         <v>2287.055438170518</v>
@@ -7201,19 +7201,19 @@
         <v>2749.44069118917</v>
       </c>
       <c r="S38" t="n">
-        <v>2727.403944228826</v>
+        <v>2727.403944228825</v>
       </c>
       <c r="T38" t="n">
         <v>2657.808290757187</v>
       </c>
       <c r="U38" t="n">
-        <v>2555.251790408544</v>
+        <v>2555.251790408543</v>
       </c>
       <c r="V38" t="n">
-        <v>2370.556033673193</v>
+        <v>2370.556033673192</v>
       </c>
       <c r="W38" t="n">
-        <v>2160.304620899502</v>
+        <v>2160.304620899501</v>
       </c>
       <c r="X38" t="n">
         <v>1930.557997789702</v>
@@ -7253,16 +7253,16 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J39" t="n">
-        <v>54.9888138237834</v>
+        <v>143.3089054803057</v>
       </c>
       <c r="K39" t="n">
-        <v>332.4485368778587</v>
+        <v>143.3089054803057</v>
       </c>
       <c r="L39" t="n">
-        <v>762.7708515403245</v>
+        <v>368.0573249175911</v>
       </c>
       <c r="M39" t="n">
-        <v>1323.073210657521</v>
+        <v>928.359684034788</v>
       </c>
       <c r="N39" t="n">
         <v>1516.886482373381</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.51881527588392</v>
+        <v>101.4652783825753</v>
       </c>
       <c r="C40" t="n">
-        <v>77.18636310627174</v>
+        <v>84.13282621296318</v>
       </c>
       <c r="D40" t="n">
-        <v>76.39798730274201</v>
+        <v>83.34445040943351</v>
       </c>
       <c r="E40" t="n">
-        <v>76.39798730274201</v>
+        <v>83.34445040943351</v>
       </c>
       <c r="F40" t="n">
-        <v>76.20084969722666</v>
+        <v>83.14731280391821</v>
       </c>
       <c r="G40" t="n">
-        <v>59.81872280567939</v>
+        <v>66.765185912371</v>
       </c>
       <c r="H40" t="n">
-        <v>54.9888138237834</v>
+        <v>61.93527693047508</v>
       </c>
       <c r="I40" t="n">
-        <v>54.9888138237834</v>
+        <v>61.93527693047508</v>
       </c>
       <c r="J40" t="n">
         <v>54.9888138237834</v>
@@ -7353,31 +7353,31 @@
         <v>795.4828671367609</v>
       </c>
       <c r="Q40" t="n">
-        <v>788.5364040300701</v>
+        <v>795.4828671367609</v>
       </c>
       <c r="R40" t="n">
-        <v>788.5364040300701</v>
+        <v>795.4828671367609</v>
       </c>
       <c r="S40" t="n">
-        <v>731.5385049926749</v>
+        <v>738.4849680993658</v>
       </c>
       <c r="T40" t="n">
-        <v>651.7287878569771</v>
+        <v>658.6752509636681</v>
       </c>
       <c r="U40" t="n">
-        <v>516.8359259532515</v>
+        <v>523.7823890599426</v>
       </c>
       <c r="V40" t="n">
-        <v>408.3841388803817</v>
+        <v>415.3306019870728</v>
       </c>
       <c r="W40" t="n">
-        <v>274.5112547664883</v>
+        <v>281.4577178731795</v>
       </c>
       <c r="X40" t="n">
-        <v>195.5423080305716</v>
+        <v>202.4887711372629</v>
       </c>
       <c r="Y40" t="n">
-        <v>125.7906665915562</v>
+        <v>132.7371296982475</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1542.213838930293</v>
+        <v>1542.213838930292</v>
       </c>
       <c r="C41" t="n">
         <v>1258.681502934059</v>
       </c>
       <c r="D41" t="n">
-        <v>984.2589608322418</v>
+        <v>984.2589608322414</v>
       </c>
       <c r="E41" t="n">
-        <v>687.8746636093076</v>
+        <v>687.8746636093074</v>
       </c>
       <c r="F41" t="n">
-        <v>372.124895590437</v>
+        <v>372.1248955904369</v>
       </c>
       <c r="G41" t="n">
         <v>54.9888138237834</v>
@@ -7411,16 +7411,16 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J41" t="n">
-        <v>174.1100376568463</v>
+        <v>174.110037656846</v>
       </c>
       <c r="K41" t="n">
-        <v>484.8750910679298</v>
+        <v>484.8750910679294</v>
       </c>
       <c r="L41" t="n">
-        <v>920.3766264492901</v>
+        <v>920.3766264492897</v>
       </c>
       <c r="M41" t="n">
-        <v>1411.105655084269</v>
+        <v>1411.105655084268</v>
       </c>
       <c r="N41" t="n">
         <v>1888.504364049727</v>
@@ -7441,22 +7441,22 @@
         <v>2749.44069118917</v>
       </c>
       <c r="T41" t="n">
-        <v>2625.962943019783</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="U41" t="n">
-        <v>2625.962943019783</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="V41" t="n">
-        <v>2387.385091586684</v>
+        <v>2680.758613809543</v>
       </c>
       <c r="W41" t="n">
-        <v>2123.251584115244</v>
+        <v>2416.625106338103</v>
       </c>
       <c r="X41" t="n">
-        <v>2123.251584115244</v>
+        <v>2132.996388530555</v>
       </c>
       <c r="Y41" t="n">
-        <v>1837.855955777353</v>
+        <v>1837.855955777352</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J42" t="n">
-        <v>54.9888138237834</v>
+        <v>90.59760186351537</v>
       </c>
       <c r="K42" t="n">
-        <v>332.4485368778587</v>
+        <v>368.0573249175907</v>
       </c>
       <c r="L42" t="n">
-        <v>762.7708515403247</v>
+        <v>368.0573249175907</v>
       </c>
       <c r="M42" t="n">
-        <v>1323.073210657521</v>
+        <v>928.3596840347875</v>
       </c>
       <c r="N42" t="n">
-        <v>1911.600008996114</v>
+        <v>1516.88648237338</v>
       </c>
       <c r="O42" t="n">
-        <v>2374.478819866146</v>
+        <v>1979.765293243412</v>
       </c>
       <c r="P42" t="n">
-        <v>2534.278698377086</v>
+        <v>2338.587228896403</v>
       </c>
       <c r="Q42" t="n">
         <v>2534.278698377086</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>455.6968905838994</v>
+        <v>383.7838682590756</v>
       </c>
       <c r="C43" t="n">
-        <v>384.4823437165387</v>
+        <v>312.569321391715</v>
       </c>
       <c r="D43" t="n">
-        <v>329.8118732152604</v>
+        <v>257.8988508904368</v>
       </c>
       <c r="E43" t="n">
-        <v>276.2042816475383</v>
+        <v>238.0442713959873</v>
       </c>
       <c r="F43" t="n">
-        <v>222.1250493442745</v>
+        <v>183.9650390927235</v>
       </c>
       <c r="G43" t="n">
-        <v>151.8608277549787</v>
+        <v>113.7008175034278</v>
       </c>
       <c r="H43" t="n">
-        <v>93.1488240753342</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="I43" t="n">
         <v>54.9888138237834</v>
@@ -7572,13 +7572,13 @@
         <v>110.1776206746603</v>
       </c>
       <c r="K43" t="n">
-        <v>269.1598567859412</v>
+        <v>269.1598567859413</v>
       </c>
       <c r="L43" t="n">
-        <v>503.236770566955</v>
+        <v>503.2367705669552</v>
       </c>
       <c r="M43" t="n">
-        <v>756.7128692640491</v>
+        <v>756.7128692640493</v>
       </c>
       <c r="N43" t="n">
         <v>1009.689534902172</v>
@@ -7596,25 +7596,25 @@
         <v>1508.858214595249</v>
       </c>
       <c r="S43" t="n">
-        <v>1469.89124318493</v>
+        <v>1397.978220860106</v>
       </c>
       <c r="T43" t="n">
-        <v>1336.199431351484</v>
+        <v>1264.286409026659</v>
       </c>
       <c r="U43" t="n">
-        <v>1147.424474750009</v>
+        <v>1075.511452425185</v>
       </c>
       <c r="V43" t="n">
-        <v>985.0905929793911</v>
+        <v>913.177570654567</v>
       </c>
       <c r="W43" t="n">
-        <v>797.3356141677492</v>
+        <v>725.4225918429253</v>
       </c>
       <c r="X43" t="n">
-        <v>664.4845727340841</v>
+        <v>592.5715504092601</v>
       </c>
       <c r="Y43" t="n">
-        <v>540.8508365973202</v>
+        <v>468.9378142724963</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1267.791296828475</v>
+        <v>1823.408680415314</v>
       </c>
       <c r="C44" t="n">
-        <v>984.2589608322418</v>
+        <v>1539.87634441908</v>
       </c>
       <c r="D44" t="n">
-        <v>984.2589608322418</v>
+        <v>1265.453802317263</v>
       </c>
       <c r="E44" t="n">
-        <v>687.8746636093076</v>
+        <v>969.0695050943289</v>
       </c>
       <c r="F44" t="n">
-        <v>372.124895590437</v>
+        <v>653.3197370754583</v>
       </c>
       <c r="G44" t="n">
-        <v>54.9888138237834</v>
+        <v>336.1836553088049</v>
       </c>
       <c r="H44" t="n">
-        <v>54.9888138237834</v>
+        <v>107.5652884676705</v>
       </c>
       <c r="I44" t="n">
         <v>54.9888138237834</v>
       </c>
       <c r="J44" t="n">
-        <v>174.1100376568464</v>
+        <v>174.1100376568461</v>
       </c>
       <c r="K44" t="n">
-        <v>484.8750910679298</v>
+        <v>484.8750910679295</v>
       </c>
       <c r="L44" t="n">
-        <v>920.3766264492901</v>
+        <v>920.3766264492897</v>
       </c>
       <c r="M44" t="n">
-        <v>1411.105655084269</v>
+        <v>1411.105655084268</v>
       </c>
       <c r="N44" t="n">
         <v>1888.504364049727</v>
@@ -7681,19 +7681,19 @@
         <v>2749.44069118917</v>
       </c>
       <c r="U44" t="n">
-        <v>2644.913923140825</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="V44" t="n">
-        <v>2406.336071707726</v>
+        <v>2749.44069118917</v>
       </c>
       <c r="W44" t="n">
-        <v>2142.202564236286</v>
+        <v>2697.819947823124</v>
       </c>
       <c r="X44" t="n">
-        <v>1858.573846428739</v>
+        <v>2414.191230015577</v>
       </c>
       <c r="Y44" t="n">
-        <v>1563.433413675536</v>
+        <v>2119.050797262374</v>
       </c>
     </row>
     <row r="45">
@@ -7727,16 +7727,16 @@
         <v>54.9888138237834</v>
       </c>
       <c r="J45" t="n">
-        <v>143.3089054803057</v>
+        <v>54.9888138237834</v>
       </c>
       <c r="K45" t="n">
-        <v>143.3089054803057</v>
+        <v>332.4485368778587</v>
       </c>
       <c r="L45" t="n">
-        <v>573.6312201427717</v>
+        <v>762.7708515403247</v>
       </c>
       <c r="M45" t="n">
-        <v>928.3596840347875</v>
+        <v>1323.073210657521</v>
       </c>
       <c r="N45" t="n">
         <v>1516.88648237338</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>401.6176582806355</v>
+        <v>455.6968905838989</v>
       </c>
       <c r="C46" t="n">
-        <v>330.4031114132748</v>
+        <v>384.4823437165384</v>
       </c>
       <c r="D46" t="n">
-        <v>275.7326409119966</v>
+        <v>329.8118732152602</v>
       </c>
       <c r="E46" t="n">
-        <v>222.1250493442745</v>
+        <v>276.2042816475381</v>
       </c>
       <c r="F46" t="n">
-        <v>222.1250493442745</v>
+        <v>222.1250493442743</v>
       </c>
       <c r="G46" t="n">
-        <v>151.8608277549787</v>
+        <v>151.8608277549786</v>
       </c>
       <c r="H46" t="n">
-        <v>93.1488240753342</v>
+        <v>93.14882407533415</v>
       </c>
       <c r="I46" t="n">
         <v>54.9888138237834</v>
@@ -7809,13 +7809,13 @@
         <v>110.1776206746603</v>
       </c>
       <c r="K46" t="n">
-        <v>269.1598567859412</v>
+        <v>269.1598567859413</v>
       </c>
       <c r="L46" t="n">
-        <v>503.236770566955</v>
+        <v>503.2367705669552</v>
       </c>
       <c r="M46" t="n">
-        <v>756.7128692640491</v>
+        <v>756.7128692640493</v>
       </c>
       <c r="N46" t="n">
         <v>1009.689534902172</v>
@@ -7830,28 +7830,28 @@
         <v>1508.858214595249</v>
       </c>
       <c r="R46" t="n">
-        <v>1508.858214595249</v>
+        <v>1469.163312456892</v>
       </c>
       <c r="S46" t="n">
-        <v>1415.812010881666</v>
+        <v>1358.283318721748</v>
       </c>
       <c r="T46" t="n">
-        <v>1282.12019904822</v>
+        <v>1224.591506888302</v>
       </c>
       <c r="U46" t="n">
-        <v>1093.345242446745</v>
+        <v>1035.816550286828</v>
       </c>
       <c r="V46" t="n">
-        <v>931.0113606761272</v>
+        <v>873.4826685162097</v>
       </c>
       <c r="W46" t="n">
-        <v>743.2563818644853</v>
+        <v>685.727689704568</v>
       </c>
       <c r="X46" t="n">
-        <v>610.4053404308202</v>
+        <v>552.8766482709028</v>
       </c>
       <c r="Y46" t="n">
-        <v>486.7716042940563</v>
+        <v>540.8508365973197</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>159.0427441082865</v>
       </c>
       <c r="K2" t="n">
         <v>178.8230039740467</v>
@@ -7987,19 +7987,19 @@
         <v>191.5602121631146</v>
       </c>
       <c r="M2" t="n">
-        <v>198.6167178772967</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
         <v>198.341060852584</v>
       </c>
       <c r="O2" t="n">
-        <v>198.8977434604743</v>
+        <v>198.415200160258</v>
       </c>
       <c r="P2" t="n">
-        <v>199.8197557315104</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>192.5663197033441</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8063,22 +8063,22 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>124.0358369512853</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>127.4268492419938</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>118.1755444478459</v>
       </c>
       <c r="O3" t="n">
-        <v>127.802395291465</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>120.7971527044972</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>125.6781381252464</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8139,22 +8139,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K4" t="n">
-        <v>104.82327226356</v>
+        <v>116.7662189439139</v>
       </c>
       <c r="L4" t="n">
         <v>121.53674615886</v>
       </c>
       <c r="M4" t="n">
-        <v>124.820146137783</v>
+        <v>124.3376028375667</v>
       </c>
       <c r="N4" t="n">
-        <v>115.6874515583558</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O4" t="n">
-        <v>123.9563408722598</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P4" t="n">
-        <v>111.9040032899324</v>
+        <v>123.8469499702863</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8218,16 +8218,16 @@
         <v>159.0427441082865</v>
       </c>
       <c r="K5" t="n">
-        <v>190.7659506544006</v>
+        <v>190.2834073541843</v>
       </c>
       <c r="L5" t="n">
-        <v>203.0206155432522</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M5" t="n">
-        <v>187.1563144971591</v>
+        <v>199.099261177513</v>
       </c>
       <c r="N5" t="n">
-        <v>186.3981141722301</v>
+        <v>198.341060852584</v>
       </c>
       <c r="O5" t="n">
         <v>186.9547967801205</v>
@@ -8236,7 +8236,7 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q5" t="n">
-        <v>192.5663197033441</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8294,28 +8294,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>114.9985183470206</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>123.9391158470206</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>124.5183802515017</v>
       </c>
       <c r="M6" t="n">
         <v>126.9443059417775</v>
       </c>
       <c r="N6" t="n">
-        <v>118.6580877480622</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
         <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
-        <v>120.7971527044972</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.6781381252464</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8379,19 +8379,19 @@
         <v>104.82327226356</v>
       </c>
       <c r="L7" t="n">
-        <v>109.5937994785061</v>
+        <v>121.53674615886</v>
       </c>
       <c r="M7" t="n">
-        <v>124.3376028375667</v>
+        <v>124.820146137783</v>
       </c>
       <c r="N7" t="n">
         <v>115.6874515583558</v>
       </c>
       <c r="O7" t="n">
-        <v>124.4388841724762</v>
+        <v>123.9563408722598</v>
       </c>
       <c r="P7" t="n">
-        <v>123.8469499702863</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q7" t="n">
         <v>84.9458458910769</v>
@@ -8455,13 +8455,13 @@
         <v>159.0427441082865</v>
       </c>
       <c r="K8" t="n">
-        <v>190.2834073541843</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>203.5031588434685</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971591</v>
+        <v>198.6167178772967</v>
       </c>
       <c r="N8" t="n">
         <v>198.341060852584</v>
@@ -8473,7 +8473,7 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>192.5663197033441</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8531,7 +8531,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>114.9985183470206</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>111.9961691666667</v>
@@ -8543,10 +8543,10 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677083</v>
+        <v>118.1755444478459</v>
       </c>
       <c r="O9" t="n">
-        <v>127.3198519912487</v>
+        <v>127.802395291465</v>
       </c>
       <c r="P9" t="n">
         <v>120.7971527044972</v>
@@ -8613,19 +8613,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>104.82327226356</v>
+        <v>116.7662189439139</v>
       </c>
       <c r="L10" t="n">
-        <v>121.0542028586437</v>
+        <v>121.53674615886</v>
       </c>
       <c r="M10" t="n">
         <v>124.820146137783</v>
       </c>
       <c r="N10" t="n">
-        <v>115.6874515583558</v>
+        <v>115.2049082581395</v>
       </c>
       <c r="O10" t="n">
-        <v>124.4388841724762</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P10" t="n">
         <v>111.9040032899324</v>
@@ -8768,10 +8768,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>74.70613214806454</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>63.54246159708423</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8786,10 +8786,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>51.55519958243215</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>147.634127969468</v>
+        <v>154.6622886337165</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8947,7 +8947,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578764</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9005,7 +9005,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>74.70613214806454</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>63.54246159708423</v>
@@ -9017,13 +9017,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>504.7069012237324</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>206.3512000145643</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236962</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9184,7 +9184,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578764</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9491,16 +9491,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>135.2323409099975</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>123.757004485885</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.43232306601513</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9719,7 +9719,7 @@
         <v>74.70613214806454</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>63.54246159708423</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9734,10 +9734,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>212.9692182803516</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.43232306601513</v>
+        <v>154.6622886337165</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9959,10 +9959,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>281.0600679429307</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>404.3842019234337</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -10190,13 +10190,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>74.70613214806454</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>281.0600679429307</v>
+        <v>47.42344418493546</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10211,7 +10211,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>75.43232306601513</v>
+        <v>219.8567330295434</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10430,7 +10430,7 @@
         <v>74.70613214806454</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>142.7724271647859</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10442,7 +10442,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>310.9886341081819</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10664,7 +10664,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>74.70613214806454</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10676,7 +10676,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>135.2323409099975</v>
+        <v>422.1127056950531</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10685,7 +10685,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>75.43232306601513</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236966</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10831,7 +10831,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406826</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10901,19 +10901,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>74.70613214806454</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>63.54246159708423</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>274.442049677143</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>224.4445547044644</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236957</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11138,13 +11138,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>74.70613214806451</v>
+        <v>110.6746049154706</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>47.42344418493542</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11156,10 +11156,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>212.9692182803516</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>75.4323230660151</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236961</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11375,19 +11375,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>74.70613214806453</v>
       </c>
       <c r="K45" t="n">
-        <v>63.54246159708419</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>397.7661836576453</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>224.4445547044639</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>288.7858847220585</v>
       </c>
       <c r="F11" t="n">
-        <v>198.3102344141295</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>309.3301514203407</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6976136440768</v>
+        <v>221.6976136440769</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>218.8545011124129</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>276.062443107625</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>46.17831393556241</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>221.6976136440769</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>47.41614036880198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>150.2396395672808</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>256.8576028680792</v>
+        <v>256.8576028680793</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>203.3666425975901</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>276.062443107625</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>80.36901033246201</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>309.3301514203407</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>221.6976136440768</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>47.41614036880195</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.52508371286568</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,10 +24502,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>149.0018131340421</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>256.8576028680792</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>288.7858847220584</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>307.9577008100356</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>221.6976136440768</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>47.41614036880195</v>
@@ -24733,7 +24733,7 @@
         <v>70.52508371286568</v>
       </c>
       <c r="T29" t="n">
-        <v>100.9132770307449</v>
+        <v>117.6084011590467</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>185.8306734277974</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>226.3321831727231</v>
+        <v>226.332183172723</v>
       </c>
       <c r="I41" t="n">
-        <v>52.05070989744823</v>
+        <v>52.05070989744818</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>75.15965324151196</v>
+        <v>75.1596532415119</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>122.2429706876929</v>
       </c>
       <c r="U41" t="n">
-        <v>154.8742090959271</v>
+        <v>154.874209095927</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>168.1968163129377</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>280.7924306294722</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.647356371158708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>33.41548195253978</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>37.77841014903524</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>39.29795311697376</v>
+        <v>39.29795311697371</v>
       </c>
       <c r="S43" t="n">
-        <v>71.19389210157611</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>271.6783166807992</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>226.3321831727231</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.05070989744823</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>75.15965324151196</v>
+        <v>75.1596532415119</v>
       </c>
       <c r="T44" t="n">
-        <v>122.242970687693</v>
+        <v>122.2429706876929</v>
       </c>
       <c r="U44" t="n">
-        <v>51.39270872806568</v>
+        <v>154.874209095927</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>236.1920729187686</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>210.3876364643407</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>53.5384399802312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>39.29795311697376</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>17.65545212134475</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>110.4918452185489</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>643803.3412568377</v>
+        <v>643803.3412568376</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>643803.3412568377</v>
+        <v>643803.3412568376</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>643803.3412568377</v>
+        <v>643803.3412568376</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>643803.3412568376</v>
+        <v>643803.3412568377</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>767624.0604941823</v>
+        <v>767624.0604941822</v>
       </c>
       <c r="C2" t="n">
-        <v>767624.0604941824</v>
+        <v>767624.060494182</v>
       </c>
       <c r="D2" t="n">
-        <v>767624.0604941819</v>
+        <v>767624.0604941822</v>
       </c>
       <c r="E2" t="n">
+        <v>709568.755735689</v>
+      </c>
+      <c r="F2" t="n">
+        <v>709568.7557356901</v>
+      </c>
+      <c r="G2" t="n">
+        <v>767624.0604941826</v>
+      </c>
+      <c r="H2" t="n">
+        <v>767624.0604941818</v>
+      </c>
+      <c r="I2" t="n">
+        <v>767624.0604941826</v>
+      </c>
+      <c r="J2" t="n">
         <v>709568.7557356888</v>
       </c>
-      <c r="F2" t="n">
-        <v>709568.7557356891</v>
-      </c>
-      <c r="G2" t="n">
-        <v>767624.0604941825</v>
-      </c>
-      <c r="H2" t="n">
-        <v>767624.0604941816</v>
-      </c>
-      <c r="I2" t="n">
-        <v>767624.0604941832</v>
-      </c>
-      <c r="J2" t="n">
-        <v>709568.7557356904</v>
-      </c>
       <c r="K2" t="n">
-        <v>709568.7557356892</v>
+        <v>709568.755735689</v>
       </c>
       <c r="L2" t="n">
         <v>767624.0604941829</v>
       </c>
       <c r="M2" t="n">
-        <v>767624.0604941827</v>
+        <v>767624.0604941829</v>
       </c>
       <c r="N2" t="n">
-        <v>767624.060494183</v>
+        <v>767624.0604941832</v>
       </c>
       <c r="O2" t="n">
-        <v>701383.2754332412</v>
+        <v>701383.275433241</v>
       </c>
       <c r="P2" t="n">
-        <v>701383.275433241</v>
+        <v>701383.2754332408</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4002.356120360259</v>
+        <v>4002.356120360235</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>45799.41934185132</v>
+        <v>45799.41934185129</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>77933.9267553996</v>
+        <v>77933.92675539953</v>
       </c>
       <c r="M3" t="n">
-        <v>168316.6744172455</v>
+        <v>168316.6744172456</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>217740.2781203591</v>
       </c>
       <c r="F4" t="n">
-        <v>217740.278120359</v>
+        <v>217740.2781203591</v>
       </c>
       <c r="G4" t="n">
         <v>250642.5227137747</v>
@@ -26447,19 +26447,19 @@
         <v>217740.2781203591</v>
       </c>
       <c r="L4" t="n">
-        <v>250642.5227137747</v>
+        <v>250642.5227137746</v>
       </c>
       <c r="M4" t="n">
         <v>250642.5227137747</v>
       </c>
       <c r="N4" t="n">
-        <v>250642.5227137747</v>
+        <v>250642.5227137748</v>
       </c>
       <c r="O4" t="n">
-        <v>213056.8337017371</v>
+        <v>213056.8337017372</v>
       </c>
       <c r="P4" t="n">
-        <v>213056.8337017371</v>
+        <v>213056.8337017372</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>57506.97024124453</v>
       </c>
       <c r="I5" t="n">
-        <v>57506.97024124452</v>
+        <v>57506.97024124453</v>
       </c>
       <c r="J5" t="n">
         <v>53412.07818599472</v>
@@ -26499,7 +26499,7 @@
         <v>53412.07818599472</v>
       </c>
       <c r="L5" t="n">
-        <v>57506.97024124453</v>
+        <v>57506.97024124452</v>
       </c>
       <c r="M5" t="n">
         <v>57506.97024124453</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>351475.3100284544</v>
+        <v>351475.3100284543</v>
       </c>
       <c r="C6" t="n">
-        <v>355477.6661488147</v>
+        <v>355477.6661488143</v>
       </c>
       <c r="D6" t="n">
-        <v>355477.6661488142</v>
+        <v>355477.6661488145</v>
       </c>
       <c r="E6" t="n">
-        <v>43032.72264462896</v>
+        <v>41581.3400256668</v>
       </c>
       <c r="F6" t="n">
-        <v>438416.3994293353</v>
+        <v>436965.016810374</v>
       </c>
       <c r="G6" t="n">
-        <v>420507.6041614635</v>
+        <v>420507.6041614636</v>
       </c>
       <c r="H6" t="n">
-        <v>459474.5675391624</v>
+        <v>459474.5675391626</v>
       </c>
       <c r="I6" t="n">
-        <v>459474.567539164</v>
+        <v>459474.5675391634</v>
       </c>
       <c r="J6" t="n">
-        <v>392616.9800874853</v>
+        <v>391165.5974685215</v>
       </c>
       <c r="K6" t="n">
-        <v>438416.3994293354</v>
+        <v>436965.0168103729</v>
       </c>
       <c r="L6" t="n">
         <v>381540.6407837641</v>
       </c>
       <c r="M6" t="n">
-        <v>291157.893121918</v>
+        <v>291157.8931219181</v>
       </c>
       <c r="N6" t="n">
-        <v>459474.5675391637</v>
+        <v>459474.5675391639</v>
       </c>
       <c r="O6" t="n">
-        <v>435303.9871712131</v>
+        <v>433647.9675446893</v>
       </c>
       <c r="P6" t="n">
-        <v>435303.987171213</v>
+        <v>433647.9675446891</v>
       </c>
     </row>
   </sheetData>
@@ -26715,7 +26715,7 @@
         <v>102.0519779728957</v>
       </c>
       <c r="L2" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="M2" t="n">
         <v>150.7606821950205</v>
@@ -26724,10 +26724,10 @@
         <v>150.7606821950205</v>
       </c>
       <c r="O2" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="P2" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
     </row>
     <row r="3">
@@ -26810,13 +26810,13 @@
         <v>687.3601727972924</v>
       </c>
       <c r="I4" t="n">
-        <v>687.3601727972923</v>
+        <v>687.3601727972924</v>
       </c>
       <c r="J4" t="n">
         <v>687.3601727972923</v>
       </c>
       <c r="K4" t="n">
-        <v>687.3601727972923</v>
+        <v>687.3601727972924</v>
       </c>
       <c r="L4" t="n">
         <v>687.3601727972924</v>
@@ -26825,13 +26825,13 @@
         <v>687.3601727972924</v>
       </c>
       <c r="N4" t="n">
-        <v>687.3601727972925</v>
+        <v>687.3601727972924</v>
       </c>
       <c r="O4" t="n">
-        <v>687.3601727972925</v>
+        <v>687.3601727972924</v>
       </c>
       <c r="P4" t="n">
-        <v>687.3601727972925</v>
+        <v>687.3601727972924</v>
       </c>
     </row>
   </sheetData>
@@ -26937,13 +26937,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97.4174084442495</v>
+        <v>97.41740844424942</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94294668035388</v>
+        <v>11.94294668035377</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>675.4172261169385</v>
+        <v>675.4172261169387</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>399.4903313468757</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>170.5793581501676</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>210.172410125945</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>240.393536242792</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -27460,13 +27460,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>148.143689351101</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>133.6147831633436</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -27478,7 +27478,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>55.75551577648572</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>47.24347953564978</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>139.3285454370332</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>176.2789053596189</v>
       </c>
       <c r="U3" t="n">
-        <v>204.366897797319</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>228.3833626429674</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -27539,7 +27539,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>155.9768631625826</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
@@ -27560,7 +27560,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>47.51371951961512</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>26.20902125249397</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0836168914117</v>
+        <v>137.5072161357099</v>
       </c>
       <c r="S4" t="n">
-        <v>199.6297182899954</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>220.3278162164222</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27624,7 +27624,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>378.8949160146003</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>399.4903313468757</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>77.7889569587513</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -27697,7 +27697,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>149.5672885953991</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
@@ -27709,13 +27709,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>115.4982682965944</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>86.99553219841505</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>55.75551577648572</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>47.24347953564978</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>139.3285454370332</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -27763,7 +27763,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>180.0767656508613</v>
+        <v>178.6531664065631</v>
       </c>
     </row>
     <row r="7">
@@ -27779,7 +27779,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>141.0218268044592</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
@@ -27791,10 +27791,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2595713324632</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>130.8180672729944</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>47.51371951961512</v>
@@ -27839,7 +27839,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>216.9969927832241</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27855,7 +27855,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>366.1714744001668</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -27873,7 +27873,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>170.5793581501676</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>89.22223498598085</v>
       </c>
       <c r="S8" t="n">
-        <v>173.4137389355957</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>210.172410125945</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27915,7 +27915,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>346.9666341606211</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -27949,7 +27949,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>86.99553219841505</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -27985,10 +27985,10 @@
         <v>139.3285454370332</v>
       </c>
       <c r="T9" t="n">
-        <v>174.8553061153208</v>
+        <v>176.2789053596189</v>
       </c>
       <c r="U9" t="n">
-        <v>205.7904970416172</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -28028,13 +28028,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>145.835972088165</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>130.8180672729944</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>47.51371951961512</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>26.20902125249397</v>
+        <v>27.63262049679216</v>
       </c>
       <c r="R10" t="n">
-        <v>136.0836168914117</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>201.0533175342936</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>218.9042169721241</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -28523,13 +28523,13 @@
         <v>102.0519779728957</v>
       </c>
       <c r="O16" t="n">
-        <v>102.0519779728957</v>
+        <v>102.051977972896</v>
       </c>
       <c r="P16" t="n">
         <v>102.0519779728957</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.0519779728953</v>
+        <v>102.0519779728957</v>
       </c>
       <c r="R16" t="n">
         <v>102.0519779728957</v>
@@ -28766,7 +28766,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.08696960710875</v>
+        <v>10.20997113148489</v>
       </c>
       <c r="R19" t="n">
         <v>136.7153615612232</v>
@@ -28775,7 +28775,7 @@
         <v>150.7606821950205</v>
       </c>
       <c r="T19" t="n">
-        <v>143.883683719396</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="U19" t="n">
         <v>150.7606821950205</v>
@@ -28958,7 +28958,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>143.8836837193961</v>
+        <v>150.7606821950205</v>
       </c>
       <c r="C22" t="n">
         <v>150.7606821950205</v>
@@ -29009,7 +29009,7 @@
         <v>136.7153615612232</v>
       </c>
       <c r="S22" t="n">
-        <v>150.7606821950205</v>
+        <v>143.8836837193965</v>
       </c>
       <c r="T22" t="n">
         <v>150.7606821950205</v>
@@ -29204,7 +29204,7 @@
         <v>150.7606821950205</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>143.6119256206705</v>
       </c>
       <c r="F25" t="n">
         <v>150.7606821950205</v>
@@ -29216,7 +29216,7 @@
         <v>150.7606821950205</v>
       </c>
       <c r="I25" t="n">
-        <v>128.3188201176603</v>
+        <v>135.1958185932847</v>
       </c>
       <c r="J25" t="n">
         <v>41.67113889790919</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="C32" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="D32" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="E32" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="F32" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="G32" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="H32" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="I32" t="n">
         <v>149.4681183416977</v>
@@ -29799,25 +29799,25 @@
         <v>54.50346472721569</v>
       </c>
       <c r="S32" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="T32" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="U32" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="V32" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="W32" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="X32" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="Y32" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
     </row>
     <row r="33">
@@ -29906,28 +29906,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>143.8836837193957</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="C34" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="D34" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="E34" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="G34" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="H34" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="I34" t="n">
-        <v>135.1958185932847</v>
+        <v>128.3188201176612</v>
       </c>
       <c r="J34" t="n">
         <v>41.67113889790919</v>
@@ -29957,25 +29957,25 @@
         <v>136.7153615612232</v>
       </c>
       <c r="S34" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="T34" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="U34" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="V34" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="W34" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="X34" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.7606821950205</v>
+        <v>150.7606821950204</v>
       </c>
     </row>
     <row r="35">
@@ -30164,7 +30164,7 @@
         <v>150.7606821950205</v>
       </c>
       <c r="I37" t="n">
-        <v>128.3188201176609</v>
+        <v>135.1958185932847</v>
       </c>
       <c r="J37" t="n">
         <v>41.67113889790919</v>
@@ -30188,7 +30188,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.08696960710875</v>
+        <v>10.20997113148489</v>
       </c>
       <c r="R37" t="n">
         <v>136.7153615612232</v>
@@ -30404,7 +30404,7 @@
         <v>135.1958185932847</v>
       </c>
       <c r="J40" t="n">
-        <v>41.67113889790919</v>
+        <v>34.79414042228442</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30425,7 +30425,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>10.20997113148489</v>
+        <v>17.08696960710875</v>
       </c>
       <c r="R40" t="n">
         <v>136.7153615612232</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="I41" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.50346472721566</v>
+        <v>54.50346472721567</v>
       </c>
       <c r="S41" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="C43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="D43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="E43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="F43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="G43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="H43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="I43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="J43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="K43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="L43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="M43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="N43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="O43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="P43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="R43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="S43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="T43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="U43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="V43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="W43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="X43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="I44" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30744,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.50346472721566</v>
+        <v>54.50346472721567</v>
       </c>
       <c r="S44" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="E46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="F46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="G46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="H46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="I46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="J46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="K46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="L46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="M46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="N46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="O46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="P46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="R46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="S46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="T46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="U46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="V46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.41740844424945</v>
+        <v>97.4174084442495</v>
       </c>
     </row>
   </sheetData>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5608172871174176</v>
+        <v>0.5608172871174175</v>
       </c>
       <c r="H41" t="n">
-        <v>5.743470041691255</v>
+        <v>5.743470041691254</v>
       </c>
       <c r="I41" t="n">
-        <v>21.62090846159427</v>
+        <v>21.62090846159426</v>
       </c>
       <c r="J41" t="n">
-        <v>47.59866622248197</v>
+        <v>47.59866622248196</v>
       </c>
       <c r="K41" t="n">
-        <v>71.33806198616227</v>
+        <v>71.33806198616226</v>
       </c>
       <c r="L41" t="n">
-        <v>88.50117403678196</v>
+        <v>88.50117403678195</v>
       </c>
       <c r="M41" t="n">
-        <v>98.47460846655633</v>
+        <v>98.47460846655632</v>
       </c>
       <c r="N41" t="n">
         <v>100.0680305835787</v>
       </c>
       <c r="O41" t="n">
-        <v>94.49140368480488</v>
+        <v>94.49140368480487</v>
       </c>
       <c r="P41" t="n">
-        <v>80.64622690909361</v>
+        <v>80.6462269090936</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.56195781420108</v>
+        <v>60.56195781420107</v>
       </c>
       <c r="R41" t="n">
-        <v>35.22843891188952</v>
+        <v>35.22843891188951</v>
       </c>
       <c r="S41" t="n">
         <v>12.77962393018817</v>
       </c>
       <c r="T41" t="n">
-        <v>2.454977674356497</v>
+        <v>2.454977674356496</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0448653829693934</v>
+        <v>0.04486538296939339</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,31 +34204,31 @@
         <v>0.3000637022534374</v>
       </c>
       <c r="H42" t="n">
-        <v>2.897983650710831</v>
+        <v>2.89798365071083</v>
       </c>
       <c r="I42" t="n">
         <v>10.33114062583107</v>
       </c>
       <c r="J42" t="n">
-        <v>28.34943951860218</v>
+        <v>28.34943951860217</v>
       </c>
       <c r="K42" t="n">
         <v>48.45370756958248</v>
       </c>
       <c r="L42" t="n">
-        <v>65.15198938621238</v>
+        <v>65.15198938621236</v>
       </c>
       <c r="M42" t="n">
-        <v>76.02929859289947</v>
+        <v>76.02929859289945</v>
       </c>
       <c r="N42" t="n">
-        <v>78.04156789441485</v>
+        <v>78.04156789441484</v>
       </c>
       <c r="O42" t="n">
-        <v>71.39278796553606</v>
+        <v>71.39278796553603</v>
       </c>
       <c r="P42" t="n">
-        <v>57.29900644171123</v>
+        <v>57.29900644171121</v>
       </c>
       <c r="Q42" t="n">
         <v>38.30286837887738</v>
@@ -34237,10 +34237,10 @@
         <v>18.63027091710378</v>
       </c>
       <c r="S42" t="n">
-        <v>5.573551662470643</v>
+        <v>5.573551662470642</v>
       </c>
       <c r="T42" t="n">
-        <v>1.209467291100478</v>
+        <v>1.209467291100477</v>
       </c>
       <c r="U42" t="n">
         <v>0.01974103304298931</v>
@@ -34280,43 +34280,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2515633281762353</v>
+        <v>0.2515633281762352</v>
       </c>
       <c r="H43" t="n">
-        <v>2.236626681421439</v>
+        <v>2.236626681421438</v>
       </c>
       <c r="I43" t="n">
-        <v>7.565195360063513</v>
+        <v>7.565195360063512</v>
       </c>
       <c r="J43" t="n">
         <v>17.78552730205983</v>
       </c>
       <c r="K43" t="n">
-        <v>29.22708485538442</v>
+        <v>29.22708485538441</v>
       </c>
       <c r="L43" t="n">
-        <v>37.40060608176502</v>
+        <v>37.40060608176501</v>
       </c>
       <c r="M43" t="n">
         <v>39.4336951612984</v>
       </c>
       <c r="N43" t="n">
-        <v>38.49605002900519</v>
+        <v>38.49605002900518</v>
       </c>
       <c r="O43" t="n">
-        <v>35.55733296803734</v>
+        <v>35.55733296803733</v>
       </c>
       <c r="P43" t="n">
         <v>30.42544107324211</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.06499832573912</v>
+        <v>21.06499832573911</v>
       </c>
       <c r="R43" t="n">
-        <v>11.31120201054236</v>
+        <v>11.31120201054235</v>
       </c>
       <c r="S43" t="n">
-        <v>4.384062728307662</v>
+        <v>4.384062728307661</v>
       </c>
       <c r="T43" t="n">
         <v>1.074861493116641</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5608172871174176</v>
+        <v>0.5608172871174175</v>
       </c>
       <c r="H44" t="n">
-        <v>5.743470041691255</v>
+        <v>5.743470041691254</v>
       </c>
       <c r="I44" t="n">
-        <v>21.62090846159427</v>
+        <v>21.62090846159426</v>
       </c>
       <c r="J44" t="n">
-        <v>47.59866622248197</v>
+        <v>47.59866622248196</v>
       </c>
       <c r="K44" t="n">
-        <v>71.33806198616227</v>
+        <v>71.33806198616226</v>
       </c>
       <c r="L44" t="n">
-        <v>88.50117403678196</v>
+        <v>88.50117403678195</v>
       </c>
       <c r="M44" t="n">
-        <v>98.47460846655633</v>
+        <v>98.47460846655632</v>
       </c>
       <c r="N44" t="n">
         <v>100.0680305835787</v>
       </c>
       <c r="O44" t="n">
-        <v>94.49140368480488</v>
+        <v>94.49140368480487</v>
       </c>
       <c r="P44" t="n">
-        <v>80.64622690909361</v>
+        <v>80.6462269090936</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.56195781420108</v>
+        <v>60.56195781420107</v>
       </c>
       <c r="R44" t="n">
-        <v>35.22843891188952</v>
+        <v>35.22843891188951</v>
       </c>
       <c r="S44" t="n">
         <v>12.77962393018817</v>
       </c>
       <c r="T44" t="n">
-        <v>2.454977674356497</v>
+        <v>2.454977674356496</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0448653829693934</v>
+        <v>0.04486538296939339</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,31 +34441,31 @@
         <v>0.3000637022534374</v>
       </c>
       <c r="H45" t="n">
-        <v>2.897983650710831</v>
+        <v>2.89798365071083</v>
       </c>
       <c r="I45" t="n">
         <v>10.33114062583107</v>
       </c>
       <c r="J45" t="n">
-        <v>28.34943951860218</v>
+        <v>28.34943951860217</v>
       </c>
       <c r="K45" t="n">
         <v>48.45370756958248</v>
       </c>
       <c r="L45" t="n">
-        <v>65.15198938621238</v>
+        <v>65.15198938621236</v>
       </c>
       <c r="M45" t="n">
-        <v>76.02929859289947</v>
+        <v>76.02929859289945</v>
       </c>
       <c r="N45" t="n">
-        <v>78.04156789441485</v>
+        <v>78.04156789441484</v>
       </c>
       <c r="O45" t="n">
-        <v>71.39278796553606</v>
+        <v>71.39278796553603</v>
       </c>
       <c r="P45" t="n">
-        <v>57.29900644171123</v>
+        <v>57.29900644171121</v>
       </c>
       <c r="Q45" t="n">
         <v>38.30286837887738</v>
@@ -34474,10 +34474,10 @@
         <v>18.63027091710378</v>
       </c>
       <c r="S45" t="n">
-        <v>5.573551662470643</v>
+        <v>5.573551662470642</v>
       </c>
       <c r="T45" t="n">
-        <v>1.209467291100478</v>
+        <v>1.209467291100477</v>
       </c>
       <c r="U45" t="n">
         <v>0.01974103304298931</v>
@@ -34517,43 +34517,43 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2515633281762353</v>
+        <v>0.2515633281762352</v>
       </c>
       <c r="H46" t="n">
-        <v>2.236626681421439</v>
+        <v>2.236626681421438</v>
       </c>
       <c r="I46" t="n">
-        <v>7.565195360063513</v>
+        <v>7.565195360063512</v>
       </c>
       <c r="J46" t="n">
         <v>17.78552730205983</v>
       </c>
       <c r="K46" t="n">
-        <v>29.22708485538442</v>
+        <v>29.22708485538441</v>
       </c>
       <c r="L46" t="n">
-        <v>37.40060608176502</v>
+        <v>37.40060608176501</v>
       </c>
       <c r="M46" t="n">
         <v>39.4336951612984</v>
       </c>
       <c r="N46" t="n">
-        <v>38.49605002900519</v>
+        <v>38.49605002900518</v>
       </c>
       <c r="O46" t="n">
-        <v>35.55733296803734</v>
+        <v>35.55733296803733</v>
       </c>
       <c r="P46" t="n">
         <v>30.42544107324211</v>
       </c>
       <c r="Q46" t="n">
-        <v>21.06499832573912</v>
+        <v>21.06499832573911</v>
       </c>
       <c r="R46" t="n">
-        <v>11.31120201054236</v>
+        <v>11.31120201054235</v>
       </c>
       <c r="S46" t="n">
-        <v>4.384062728307662</v>
+        <v>4.384062728307661</v>
       </c>
       <c r="T46" t="n">
         <v>1.074861493116641</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34707,19 +34707,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="O2" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="P2" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="N3" t="n">
         <v>11.46040338013756</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="P3" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L4" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="M4" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,16 +34938,16 @@
         <v>11.94294668035388</v>
       </c>
       <c r="K5" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="L5" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="M6" t="n">
         <v>11.46040338013756</v>
       </c>
       <c r="N6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="M7" t="n">
-        <v>11.46040338013756</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="N7" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="O7" t="n">
-        <v>11.94294668035388</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="P7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>11.94294668035388</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>11.46040338013756</v>
-      </c>
-      <c r="L8" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>11.94294668035388</v>
@@ -35193,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="O9" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>11.46040338013756</v>
       </c>
       <c r="P9" t="n">
         <v>11.94294668035388</v>
@@ -35333,19 +35333,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L10" t="n">
-        <v>11.46040338013756</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="M10" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="N10" t="n">
-        <v>11.94294668035388</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="O10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>89.21221379446695</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>280.262346519268</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>434.6690047095615</v>
@@ -35506,10 +35506,10 @@
         <v>467.5543544141732</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>362.4463996494862</v>
       </c>
       <c r="Q12" t="n">
-        <v>72.20180490345284</v>
+        <v>79.2299655677014</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.38083907498655</v>
+        <v>60.38083907498653</v>
       </c>
       <c r="K13" t="n">
         <v>165.2226868127684</v>
@@ -35579,7 +35579,7 @@
         <v>260.6710328590443</v>
       </c>
       <c r="N13" t="n">
-        <v>260.1665550216993</v>
+        <v>260.1665550216992</v>
       </c>
       <c r="O13" t="n">
         <v>237.067539724458</v>
@@ -35588,7 +35588,7 @@
         <v>196.0819480644588</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.96500836578699</v>
+        <v>84.96500836578696</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>311.1077384808645</v>
       </c>
       <c r="Q14" t="n">
-        <v>155.9480726490869</v>
+        <v>155.9480726490872</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>89.21221379446695</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>565.9619789062594</v>
       </c>
       <c r="N15" t="n">
-        <v>476.0333280504389</v>
+        <v>594.471513473326</v>
       </c>
       <c r="O15" t="n">
         <v>467.5543544141732</v>
       </c>
       <c r="P15" t="n">
-        <v>362.4463996494862</v>
+        <v>154.7960004321321</v>
       </c>
       <c r="Q15" t="n">
         <v>197.6681509905887</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.38083907498655</v>
+        <v>60.38083907498653</v>
       </c>
       <c r="K16" t="n">
         <v>165.2226868127684</v>
@@ -35819,13 +35819,13 @@
         <v>260.1665550216993</v>
       </c>
       <c r="O16" t="n">
-        <v>237.067539724458</v>
+        <v>237.0675397244583</v>
       </c>
       <c r="P16" t="n">
-        <v>196.0819480644589</v>
+        <v>196.0819480644588</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.96500836578655</v>
+        <v>84.96500836578696</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>120.3244685182455</v>
+        <v>120.3244685182452</v>
       </c>
       <c r="K17" t="n">
         <v>313.9040943546296</v>
@@ -35904,7 +35904,7 @@
         <v>311.1077384808645</v>
       </c>
       <c r="Q17" t="n">
-        <v>155.9480726490869</v>
+        <v>155.9480726490872</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>565.9619789062594</v>
       </c>
       <c r="N21" t="n">
-        <v>594.471513473326</v>
+        <v>106.558767736704</v>
       </c>
       <c r="O21" t="n">
         <v>467.5543544141732</v>
       </c>
       <c r="P21" t="n">
-        <v>72.20180490345284</v>
+        <v>362.4463996494862</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>197.6681509905887</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>280.262346519268</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>434.6690047095615</v>
@@ -36454,10 +36454,10 @@
         <v>467.5543544141732</v>
       </c>
       <c r="P24" t="n">
-        <v>161.4140186979195</v>
+        <v>362.4463996494862</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>79.2299655677014</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>280.262346519268</v>
       </c>
       <c r="L27" t="n">
-        <v>233.6366237579953</v>
+        <v>434.6690047095615</v>
       </c>
       <c r="M27" t="n">
-        <v>565.9619789062594</v>
+        <v>364.9295979546932</v>
       </c>
       <c r="N27" t="n">
         <v>594.471513473326</v>
@@ -36770,7 +36770,7 @@
         <v>237.067539724458</v>
       </c>
       <c r="P28" t="n">
-        <v>196.0819480644589</v>
+        <v>196.0819480644588</v>
       </c>
       <c r="Q28" t="n">
         <v>84.96500836578699</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>89.21221379446695</v>
       </c>
       <c r="K30" t="n">
         <v>280.262346519268</v>
       </c>
       <c r="L30" t="n">
-        <v>233.6366237579953</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>565.9619789062594</v>
@@ -36931,7 +36931,7 @@
         <v>362.4463996494862</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>144.4244099635283</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>280.262346519268</v>
+        <v>79.22996556770168</v>
       </c>
       <c r="L33" t="n">
         <v>434.6690047095615</v>
@@ -37162,7 +37162,7 @@
         <v>594.471513473326</v>
       </c>
       <c r="O33" t="n">
-        <v>266.5219734626068</v>
+        <v>467.5543544141732</v>
       </c>
       <c r="P33" t="n">
         <v>362.4463996494862</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>89.21221379446695</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>280.262346519268</v>
@@ -37396,7 +37396,7 @@
         <v>565.9619789062594</v>
       </c>
       <c r="N36" t="n">
-        <v>106.558767736704</v>
+        <v>393.4391325217596</v>
       </c>
       <c r="O36" t="n">
         <v>467.5543544141732</v>
@@ -37405,7 +37405,7 @@
         <v>362.4463996494862</v>
       </c>
       <c r="Q36" t="n">
-        <v>197.6681509905887</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>120.3244685182459</v>
+        <v>120.3244685182452</v>
       </c>
       <c r="K38" t="n">
         <v>313.9040943546296</v>
@@ -37551,7 +37551,7 @@
         <v>439.9005407892528</v>
       </c>
       <c r="M38" t="n">
-        <v>495.6858875100794</v>
+        <v>495.6858875100797</v>
       </c>
       <c r="N38" t="n">
         <v>482.2209181469278</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>89.21221379446695</v>
       </c>
       <c r="K39" t="n">
-        <v>280.262346519268</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>434.6690047095615</v>
+        <v>227.0186054922075</v>
       </c>
       <c r="M39" t="n">
         <v>565.9619789062594</v>
       </c>
       <c r="N39" t="n">
-        <v>195.7709815311709</v>
+        <v>594.471513473326</v>
       </c>
       <c r="O39" t="n">
         <v>467.5543544141732</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>120.3244685182453</v>
+        <v>120.324468518245</v>
       </c>
       <c r="K41" t="n">
         <v>313.9040943546297</v>
@@ -37800,7 +37800,7 @@
         <v>311.1077384808646</v>
       </c>
       <c r="Q41" t="n">
-        <v>155.948072649087</v>
+        <v>155.9480726490869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>35.96847276740603</v>
       </c>
       <c r="K42" t="n">
         <v>280.262346519268</v>
       </c>
       <c r="L42" t="n">
-        <v>434.6690047095615</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>565.9619789062594</v>
@@ -37876,10 +37876,10 @@
         <v>467.5543544141733</v>
       </c>
       <c r="P42" t="n">
-        <v>161.4140186979195</v>
+        <v>362.4463996494862</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>197.6681509905887</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>55.74626954634028</v>
+        <v>55.74626954634033</v>
       </c>
       <c r="K43" t="n">
         <v>160.5881172841222</v>
       </c>
       <c r="L43" t="n">
-        <v>236.4413270515291</v>
+        <v>236.4413270515292</v>
       </c>
       <c r="M43" t="n">
         <v>256.0364633303981</v>
@@ -37952,13 +37952,13 @@
         <v>255.531985493053</v>
       </c>
       <c r="O43" t="n">
-        <v>232.4329701958117</v>
+        <v>232.4329701958118</v>
       </c>
       <c r="P43" t="n">
         <v>191.4473785358126</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.33043883714072</v>
+        <v>80.33043883714076</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>120.3244685182455</v>
+        <v>120.3244685182453</v>
       </c>
       <c r="K44" t="n">
         <v>313.9040943546297</v>
@@ -38037,7 +38037,7 @@
         <v>311.1077384808646</v>
       </c>
       <c r="Q44" t="n">
-        <v>155.948072649087</v>
+        <v>155.9480726490869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.21221379446698</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>280.262346519268</v>
       </c>
       <c r="L45" t="n">
         <v>434.6690047095615</v>
       </c>
       <c r="M45" t="n">
-        <v>358.3115796889049</v>
+        <v>565.9619789062594</v>
       </c>
       <c r="N45" t="n">
-        <v>594.471513473326</v>
+        <v>195.7709815311704</v>
       </c>
       <c r="O45" t="n">
         <v>467.5543544141733</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>55.74626954634028</v>
+        <v>55.74626954634033</v>
       </c>
       <c r="K46" t="n">
         <v>160.5881172841222</v>
       </c>
       <c r="L46" t="n">
-        <v>236.4413270515291</v>
+        <v>236.4413270515292</v>
       </c>
       <c r="M46" t="n">
         <v>256.0364633303981</v>
@@ -38189,13 +38189,13 @@
         <v>255.531985493053</v>
       </c>
       <c r="O46" t="n">
-        <v>232.4329701958117</v>
+        <v>232.4329701958118</v>
       </c>
       <c r="P46" t="n">
         <v>191.4473785358126</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.33043883714072</v>
+        <v>80.33043883714076</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
